--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21765" windowHeight="8745" activeTab="3"/>
+    <workbookView windowWidth="19995" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="3" r:id="rId1"/>
@@ -348,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -390,14 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -405,24 +397,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,30 +421,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,7 +444,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,14 +486,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +507,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,13 +571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +637,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,25 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,67 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +732,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -753,26 +768,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,11 +791,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,17 +822,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,91 +852,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,10 +945,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,28 +957,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1401,8 +1401,8 @@
   <sheetPr/>
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2792,8 +2792,8 @@
   <sheetPr/>
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97:O97"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="M118" sqref="M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4737,8 +4737,8 @@
   <sheetPr/>
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19995" windowHeight="8355" activeTab="2"/>
+    <workbookView windowWidth="21420" windowHeight="9240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="3" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <t>申请的状态</t>
   </si>
   <si>
-    <t>获取库存审批列表</t>
+    <t>审批人获取库存审批列表</t>
   </si>
   <si>
     <t>/s/listRepertoryApplyByApprover.action</t>
@@ -348,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -391,23 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +404,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -435,6 +450,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -443,15 +465,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -466,10 +489,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,41 +505,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -571,55 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,13 +595,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,25 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,37 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,21 +732,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -768,8 +753,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,7 +777,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -802,7 +798,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,13 +818,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,91 +852,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,10 +945,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,28 +957,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1401,8 +1401,8 @@
   <sheetPr/>
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93:L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2792,8 +2792,8 @@
   <sheetPr/>
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105:O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4737,8 +4737,8 @@
   <sheetPr/>
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:O53"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21420" windowHeight="9240" activeTab="2"/>
+    <workbookView windowWidth="23715" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="更新说明" sheetId="3" r:id="rId1"/>
-    <sheet name="查看库存" sheetId="4" r:id="rId2"/>
-    <sheet name="库存分配" sheetId="1" r:id="rId3"/>
-    <sheet name="申请库存" sheetId="2" r:id="rId4"/>
+    <sheet name="查看库存" sheetId="4" r:id="rId1"/>
+    <sheet name="库存分配" sheetId="1" r:id="rId2"/>
+    <sheet name="申请库存" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -348,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -391,14 +390,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,8 +404,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -427,31 +426,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,14 +444,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -482,7 +482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,9 +496,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,11 +512,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -571,13 +570,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +618,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,115 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +731,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,31 +768,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,7 +788,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,6 +822,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,91 +851,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,10 +944,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,28 +956,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,27 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93:L93"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2787,13 +2769,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105:O105"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4732,13 +4714,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L154" sqref="L154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="10665" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -348,8 +348,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -389,25 +389,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,6 +409,28 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,47 +450,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,6 +499,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,7 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,19 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +624,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,43 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,19 +690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,25 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,17 +734,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,27 +762,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,6 +820,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,91 +851,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,10 +944,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,25 +956,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1383,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2774,8 +2774,8 @@
   <sheetPr/>
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4719,8 +4719,8 @@
   <sheetPr/>
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="L154" sqref="L154"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
-    <sheet name="库存分配" sheetId="1" r:id="rId2"/>
+    <sheet name="库存盘点" sheetId="1" r:id="rId2"/>
     <sheet name="申请库存" sheetId="2" r:id="rId3"/>
+    <sheet name="添加库存" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>查看一级库存</t>
   </si>
@@ -171,15 +172,42 @@
     <t>查看销售点库存</t>
   </si>
   <si>
+    <t>goodsTypeId(分类Id)为空，则获取所有分类下的商品</t>
+  </si>
+  <si>
     <t>/s/listBranchGoods.action</t>
   </si>
   <si>
+    <t>goodsTypeId</t>
+  </si>
+  <si>
+    <t>分类Id</t>
+  </si>
+  <si>
+    <t>goodsCode</t>
+  </si>
+  <si>
+    <t>商品编码</t>
+  </si>
+  <si>
+    <t>goodsCreateDate</t>
+  </si>
+  <si>
+    <t>发布时间</t>
+  </si>
+  <si>
     <t>查看当前销售点库存</t>
   </si>
   <si>
     <t>/s/getRepertory.action</t>
   </si>
   <si>
+    <t>查看总部销售点库存</t>
+  </si>
+  <si>
+    <t>/s/getFirstRepertory.action</t>
+  </si>
+  <si>
     <t>增加一级库存</t>
   </si>
   <si>
@@ -216,55 +244,73 @@
     <t>/s/updateRepertorySubFirst.action</t>
   </si>
   <si>
+    <t>增加二级库存</t>
+  </si>
+  <si>
+    <t>/s/updateRepertoryAddSecond.action</t>
+  </si>
+  <si>
+    <t>减少二级库存</t>
+  </si>
+  <si>
+    <t>/s/updateRepertorySubSecond.action</t>
+  </si>
+  <si>
+    <t>获取库存分配记录</t>
+  </si>
+  <si>
+    <t>操作类型(recordType)为"1"代表添加，"2"代表减少</t>
+  </si>
+  <si>
+    <t>/s/listRepertoryRecord.action</t>
+  </si>
+  <si>
+    <t>operatorId</t>
+  </si>
+  <si>
+    <t>操作员的用户Id</t>
+  </si>
+  <si>
+    <t>operatorName</t>
+  </si>
+  <si>
+    <t>操作员的姓名</t>
+  </si>
+  <si>
+    <t>recordType</t>
+  </si>
+  <si>
+    <t>操作的类型</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
+    <t>创建时间(时间戳)</t>
+  </si>
+  <si>
     <t>json(数组)</t>
   </si>
   <si>
-    <t>增加二级库存</t>
-  </si>
-  <si>
-    <t>/s/updateRepertoryAddSecond.action</t>
-  </si>
-  <si>
-    <t>减少二级库存</t>
-  </si>
-  <si>
-    <t>/s/updateRepertorySubSecond.action</t>
-  </si>
-  <si>
-    <t>获取库存分配记录</t>
-  </si>
-  <si>
-    <t>操作类型(recordType)为"1"代表添加，"2"代表减少</t>
-  </si>
-  <si>
-    <t>/s/listRepertoryRecord.action</t>
-  </si>
-  <si>
-    <t>operatorId</t>
-  </si>
-  <si>
-    <t>操作员的用户Id</t>
-  </si>
-  <si>
-    <t>operatorName</t>
-  </si>
-  <si>
-    <t>操作员的姓名</t>
-  </si>
-  <si>
-    <t>recordType</t>
-  </si>
-  <si>
-    <t>操作的类型</t>
-  </si>
-  <si>
-    <t>操作类型</t>
-  </si>
-  <si>
-    <t>createDate</t>
-  </si>
-  <si>
-    <t>创建时间(时间戳)</t>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>/s/updateRepertory.action</t>
+  </si>
+  <si>
+    <t>盘点Id</t>
+  </si>
+  <si>
+    <t>调整类型</t>
+  </si>
+  <si>
+    <t>recordReason</t>
+  </si>
+  <si>
+    <t>调整原因</t>
   </si>
   <si>
     <t>发起申请</t>
@@ -348,8 +394,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -389,6 +435,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -398,7 +451,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -426,17 +487,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,24 +511,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,21 +560,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,24 +616,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -624,24 +652,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -654,25 +664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,19 +694,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,13 +730,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,15 +804,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -778,6 +815,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,17 +877,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,88 +897,88 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,10 +990,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,32 +1002,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,6 +1068,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40">
@@ -1031,6 +1080,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,10 +1436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33:O33"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M103" sqref="M103:O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1393,40 +1448,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -1635,10 +1690,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1658,10 +1713,10 @@
         <v>31</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="16"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15">
@@ -1707,40 +1762,40 @@
       <c r="O14" s="3"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
@@ -1980,7 +2035,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
@@ -1998,8 +2053,13 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2015,8 +2075,11 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
@@ -2042,10 +2105,13 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2071,8 +2137,11 @@
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2096,8 +2165,11 @@
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2113,16 +2185,19 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2138,85 +2213,101 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="M61" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L62" s="3"/>
-      <c r="M62" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="K63" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2227,305 +2318,251 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L66" s="3"/>
-      <c r="M66" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="16"/>
+      <c r="M66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N67" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="2" t="s">
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N69" s="17"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2" t="s">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2" t="s">
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3" t="s">
+      <c r="G90" s="3"/>
+      <c r="H90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N89" s="3"/>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -2536,16 +2573,22 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L91" s="16"/>
-      <c r="M91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
@@ -2555,19 +2598,23 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="F92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L92" s="3"/>
-      <c r="M92" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N92" s="16"/>
+      <c r="M92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15">
@@ -2576,17 +2623,21 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
+      <c r="F93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
       <c r="K93" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -2597,23 +2648,597 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
+      <c r="F94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
       <c r="K94" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L94" s="3"/>
-      <c r="M94" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="M101" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N101" s="17"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L131" s="3"/>
+      <c r="M131" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N131" s="17"/>
+      <c r="O131" s="3"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="214">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -2702,11 +3327,11 @@
     <mergeCell ref="M60:O60"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:O61"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="K62:O62"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
     <mergeCell ref="K63:L63"/>
@@ -2715,54 +3340,119 @@
     <mergeCell ref="H64:J64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:O64"/>
-    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:J66"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="M66:O66"/>
     <mergeCell ref="K67:L67"/>
     <mergeCell ref="M67:O67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:O83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:O84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="M86:O86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="K87:O87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="A89:D89"/>
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="K90:L90"/>
     <mergeCell ref="M90:O90"/>
-    <mergeCell ref="K91:O91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:J92"/>
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="M92:O92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:J93"/>
     <mergeCell ref="K93:L93"/>
     <mergeCell ref="M93:O93"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:O94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:O94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="K119:O119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="K124:O124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="K130:O130"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:O133"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A30:O31"/>
     <mergeCell ref="A55:O56"/>
-    <mergeCell ref="A81:O82"/>
+    <mergeCell ref="P55:R71"/>
+    <mergeCell ref="A87:O88"/>
+    <mergeCell ref="A117:O118"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2772,10 +3462,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="M128" sqref="M128:O128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2785,40 +3475,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="A1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -2849,7 +3539,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2871,7 +3561,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2917,11 +3607,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2933,11 +3623,11 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2954,7 +3644,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -3040,7 +3730,7 @@
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -3061,7 +3751,7 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -3072,40 +3762,40 @@
       <c r="O13" s="7"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="A21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
@@ -3136,7 +3826,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3158,7 +3848,7 @@
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -3204,11 +3894,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -3220,11 +3910,11 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -3241,7 +3931,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -3327,7 +4017,7 @@
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
@@ -3348,7 +4038,7 @@
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -3359,40 +4049,40 @@
       <c r="O33" s="7"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="A42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
@@ -3423,7 +4113,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3445,7 +4135,7 @@
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3491,11 +4181,11 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3549,11 +4239,11 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -3570,7 +4260,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -3656,7 +4346,7 @@
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -3677,7 +4367,7 @@
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -3688,40 +4378,40 @@
       <c r="O56" s="7"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
+      <c r="A67" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2" t="s">
@@ -3752,7 +4442,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3774,7 +4464,7 @@
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -3820,11 +4510,11 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -3878,11 +4568,11 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -3899,7 +4589,7 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -3985,7 +4675,7 @@
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -4006,7 +4696,7 @@
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I81" s="11"/>
       <c r="J81" s="11"/>
@@ -4018,7 +4708,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4034,11 +4724,11 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
+      <c r="P92" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="1"/>
@@ -4056,9 +4746,9 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2" t="s">
@@ -4086,13 +4776,13 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4114,13 +4804,13 @@
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="4"/>
@@ -4146,9 +4836,9 @@
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="4"/>
@@ -4174,9 +4864,9 @@
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="4"/>
@@ -4185,11 +4875,11 @@
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -4200,9 +4890,9 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="4"/>
@@ -4211,11 +4901,11 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -4228,9 +4918,9 @@
       </c>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="5"/>
@@ -4238,9 +4928,13 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="3"/>
+      <c r="F100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="6" t="s">
@@ -4252,9 +4946,9 @@
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="7"/>
@@ -4268,17 +4962,17 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L101" s="6"/>
       <c r="M101" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="7"/>
@@ -4292,17 +4986,17 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L102" s="6"/>
       <c r="M102" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
-      <c r="R102" s="14"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="15"/>
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="7"/>
@@ -4316,17 +5010,17 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
-      <c r="R103" s="14"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="7"/>
@@ -4340,19 +5034,19 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="O104" s="8"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="7"/>
@@ -4366,17 +5060,17 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
-      <c r="P105" s="14"/>
-      <c r="Q105" s="14"/>
-      <c r="R105" s="14"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="7"/>
@@ -4390,15 +5084,15 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="9" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="14"/>
-      <c r="R106" s="14"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="7"/>
@@ -4420,9 +5114,9 @@
       </c>
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
-      <c r="R107" s="14"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="7"/>
@@ -4444,9 +5138,9 @@
       </c>
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
-      <c r="R108" s="14"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="7"/>
@@ -4468,9 +5162,9 @@
       </c>
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
-      <c r="P109" s="14"/>
-      <c r="Q109" s="14"/>
-      <c r="R109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="7"/>
@@ -4488,13 +5182,13 @@
       </c>
       <c r="L110" s="10"/>
       <c r="M110" s="11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="14"/>
-      <c r="R110" s="14"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="7"/>
@@ -4512,16 +5206,440 @@
       </c>
       <c r="L111" s="10"/>
       <c r="M111" s="11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q123" s="14"/>
+      <c r="R123" s="14"/>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="14"/>
+      <c r="Q124" s="14"/>
+      <c r="R124" s="14"/>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="15"/>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="15"/>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="15"/>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="15"/>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="15"/>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="10"/>
+      <c r="H133" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="15"/>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" s="10"/>
+      <c r="H134" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="10"/>
+      <c r="H135" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
+    </row>
+    <row r="137" spans="1:18">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="15"/>
+    </row>
+    <row r="138" spans="1:18">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="15"/>
+    </row>
+    <row r="139" spans="1:18">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="226">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4701,12 +5819,53 @@
     <mergeCell ref="M110:O110"/>
     <mergeCell ref="K111:L111"/>
     <mergeCell ref="M111:O111"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="K125:O125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:O129"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:J139"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="A42:O43"/>
     <mergeCell ref="A67:O68"/>
     <mergeCell ref="A92:O93"/>
     <mergeCell ref="P92:R93"/>
+    <mergeCell ref="A123:O124"/>
+    <mergeCell ref="P123:R124"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4719,8 +5878,8 @@
   <sheetPr/>
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4730,7 +5889,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4793,7 +5952,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4815,7 +5974,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -4861,11 +6020,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -4919,11 +6078,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -4940,11 +6099,11 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4961,11 +6120,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4982,11 +6141,11 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5003,11 +6162,11 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -5024,7 +6183,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -5110,7 +6269,7 @@
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -5131,7 +6290,7 @@
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -5143,7 +6302,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5206,7 +6365,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5228,7 +6387,7 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -5286,11 +6445,11 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5302,7 +6461,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5365,7 +6524,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5387,7 +6546,7 @@
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -5445,11 +6604,11 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -5461,7 +6620,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5524,7 +6683,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5546,7 +6705,7 @@
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -5640,11 +6799,11 @@
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -5661,11 +6820,11 @@
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -5724,11 +6883,11 @@
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -5745,11 +6904,11 @@
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -5766,11 +6925,11 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -5787,11 +6946,11 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -5808,11 +6967,11 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
@@ -5829,11 +6988,11 @@
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -5850,7 +7009,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
@@ -5936,7 +7095,7 @@
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
@@ -5957,7 +7116,7 @@
       </c>
       <c r="L92" s="10"/>
       <c r="M92" s="11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
@@ -6034,7 +7193,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6097,7 +7256,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6119,7 +7278,7 @@
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -6213,11 +7372,11 @@
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -6234,11 +7393,11 @@
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -6297,11 +7456,11 @@
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -6318,11 +7477,11 @@
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -6339,11 +7498,11 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -6360,11 +7519,11 @@
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -6381,11 +7540,11 @@
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
@@ -6402,11 +7561,11 @@
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L120" s="6"/>
       <c r="M120" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
@@ -6423,7 +7582,7 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
@@ -6509,7 +7668,7 @@
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
@@ -6530,14 +7689,14 @@
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6600,7 +7759,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -6622,7 +7781,7 @@
       </c>
       <c r="L143" s="3"/>
       <c r="M143" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
@@ -6687,11 +7846,11 @@
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
@@ -6708,11 +7867,11 @@
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L147" s="8"/>
       <c r="M147" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
@@ -6953,4 +8112,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
     <sheet name="库存盘点" sheetId="1" r:id="rId2"/>
     <sheet name="申请库存" sheetId="2" r:id="rId3"/>
-    <sheet name="添加库存" sheetId="5" r:id="rId4"/>
+    <sheet name="库存进仓" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>查看一级库存</t>
   </si>
@@ -256,7 +256,7 @@
     <t>/s/updateRepertorySubSecond.action</t>
   </si>
   <si>
-    <t>获取库存分配记录</t>
+    <t>获取库存盘点记录</t>
   </si>
   <si>
     <t>操作类型(recordType)为"1"代表添加，"2"代表减少</t>
@@ -265,6 +265,18 @@
     <t>/s/listRepertoryRecord.action</t>
   </si>
   <si>
+    <t>recordId</t>
+  </si>
+  <si>
+    <t>盘点Id</t>
+  </si>
+  <si>
+    <t>recordCode</t>
+  </si>
+  <si>
+    <t>盘点单号</t>
+  </si>
+  <si>
     <t>operatorId</t>
   </si>
   <si>
@@ -292,7 +304,16 @@
     <t>创建时间(时间戳)</t>
   </si>
   <si>
-    <t>json(数组)</t>
+    <t>recordList(json数组)</t>
+  </si>
+  <si>
+    <t>调整类型</t>
+  </si>
+  <si>
+    <t>recordReason</t>
+  </si>
+  <si>
+    <t>调整原因</t>
   </si>
   <si>
     <t>盘点库存</t>
@@ -301,24 +322,24 @@
     <t>/s/updateRepertory.action</t>
   </si>
   <si>
-    <t>盘点Id</t>
-  </si>
-  <si>
-    <t>调整类型</t>
-  </si>
-  <si>
-    <t>recordReason</t>
-  </si>
-  <si>
-    <t>调整原因</t>
-  </si>
-  <si>
     <t>发起申请</t>
   </si>
   <si>
+    <t>申请状态(applyStatus)</t>
+  </si>
+  <si>
+    <t>待审核</t>
+  </si>
+  <si>
     <t>/s/saveRepertoryApply.action</t>
   </si>
   <si>
+    <t>已通过(已发货)</t>
+  </si>
+  <si>
+    <t>已签收</t>
+  </si>
+  <si>
     <t>申请的Id</t>
   </si>
   <si>
@@ -349,6 +370,9 @@
     <t>applyRemark</t>
   </si>
   <si>
+    <t>申请数量</t>
+  </si>
+  <si>
     <t>同意申请</t>
   </si>
   <si>
@@ -364,7 +388,7 @@
     <t>/s/updateRepertoryApplyFinish.action</t>
   </si>
   <si>
-    <t>获取库存申请列表</t>
+    <t>申请人获取库存申请列表</t>
   </si>
   <si>
     <t>/s/listRepertoryApplyByProposer.action</t>
@@ -376,6 +400,12 @@
     <t>申请的状态</t>
   </si>
   <si>
+    <t>acceptDate</t>
+  </si>
+  <si>
+    <t>审核通过时间(时间戳)</t>
+  </si>
+  <si>
     <t>审批人获取库存审批列表</t>
   </si>
   <si>
@@ -386,6 +416,39 @@
   </si>
   <si>
     <t>/s/listRepertoryChecker.action</t>
+  </si>
+  <si>
+    <t>新建进仓单</t>
+  </si>
+  <si>
+    <t>/s/saveRepertoryIncome.action</t>
+  </si>
+  <si>
+    <t>进仓单的Id</t>
+  </si>
+  <si>
+    <t>进仓数量</t>
+  </si>
+  <si>
+    <t>获取进仓单列表</t>
+  </si>
+  <si>
+    <t>/s/listRepertoryIncome.action</t>
+  </si>
+  <si>
+    <t>进仓单Id</t>
+  </si>
+  <si>
+    <t>进仓单号</t>
+  </si>
+  <si>
+    <t>获取进仓单详情</t>
+  </si>
+  <si>
+    <t>/s/getRepertoryIncome.action</t>
+  </si>
+  <si>
+    <t>result(json对象)</t>
   </si>
 </sst>
 </file>
@@ -393,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -435,18 +498,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,10 +537,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,9 +582,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,38 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -551,13 +621,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -622,19 +685,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,19 +721,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,37 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +827,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -782,6 +845,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -789,17 +863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,13 +893,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,21 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -885,10 +948,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,88 +963,88 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,10 +1053,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,32 +1065,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,14 +1106,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,6 +1123,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="36" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1436,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M103" sqref="M103:O103"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1448,40 +1520,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -1690,10 +1762,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1713,10 +1785,10 @@
         <v>31</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="17"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15">
@@ -1762,40 +1834,40 @@
       <c r="O14" s="3"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
@@ -2053,11 +2125,11 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="18" t="s">
+      <c r="P55" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1"/>
@@ -2075,9 +2147,9 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="2" t="s">
@@ -2105,9 +2177,9 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="3" t="s">
@@ -2137,9 +2209,9 @@
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="4"/>
@@ -2165,9 +2237,9 @@
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="4"/>
@@ -2193,9 +2265,9 @@
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="4"/>
@@ -2213,17 +2285,17 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="4"/>
@@ -2241,15 +2313,17 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="M62" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="4"/>
@@ -2266,18 +2340,16 @@
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
+      <c r="K63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="4"/>
@@ -2294,18 +2366,18 @@
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
+      <c r="K64" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="4"/>
@@ -2319,17 +2391,17 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="4"/>
@@ -2343,17 +2415,17 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="4"/>
@@ -2367,19 +2439,17 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="4"/>
@@ -2392,16 +2462,18 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="3"/>
+      <c r="K68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="4"/>
@@ -2414,18 +2486,16 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N69" s="17"/>
+      <c r="K69" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" s="20"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="4"/>
@@ -2439,17 +2509,17 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L70" s="3"/>
-      <c r="M70" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N70" s="3"/>
+      <c r="M70" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70" s="20"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="4"/>
@@ -2463,17 +2533,38 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
@@ -2633,11 +2724,11 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -2658,10 +2749,12 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
+      <c r="M94" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
@@ -2680,15 +2773,13 @@
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
+      <c r="K95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="4"/>
@@ -2701,15 +2792,15 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
+      <c r="K96" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="4"/>
@@ -2717,17 +2808,17 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -2744,11 +2835,11 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L98" s="3"/>
       <c r="M98" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -2765,11 +2856,11 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="3" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="L99" s="3"/>
       <c r="M99" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -2785,11 +2876,13 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="3"/>
+      <c r="K100" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
     </row>
@@ -2804,14 +2897,12 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="3"/>
-      <c r="M101" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N101" s="17"/>
+      <c r="K101" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101" s="20"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15">
@@ -2826,13 +2917,13 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L102" s="3"/>
-      <c r="M102" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="M102" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N102" s="20"/>
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="1:15">
@@ -2847,36 +2938,40 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="1" t="s">
+    <row r="104" spans="1:15">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2893,82 +2988,74 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2" t="s">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2" t="s">
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="3" t="s">
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3" t="s">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -2980,20 +3067,20 @@
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L122" s="3"/>
       <c r="M122" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -3005,20 +3092,20 @@
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L123" s="3"/>
       <c r="M123" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
@@ -3030,19 +3117,21 @@
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
+      <c r="M124" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
     </row>
@@ -3053,23 +3142,23 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N125" s="19"/>
-      <c r="O125" s="19"/>
+      <c r="K125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="4"/>
@@ -3077,18 +3166,20 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="3"/>
+      <c r="F126" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L126" s="3"/>
-      <c r="M126" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
     </row>
@@ -3103,15 +3194,15 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
+      <c r="K127" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="4"/>
@@ -3125,11 +3216,11 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L128" s="3"/>
       <c r="M128" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
@@ -3146,11 +3237,11 @@
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="L129" s="3"/>
       <c r="M129" s="3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
@@ -3161,16 +3252,18 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
     </row>
@@ -3186,13 +3279,13 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="L131" s="3"/>
-      <c r="M131" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N131" s="17"/>
+      <c r="M131" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N131" s="3"/>
       <c r="O131" s="3"/>
     </row>
     <row r="132" spans="1:15">
@@ -3206,13 +3299,11 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="K132" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L132" s="20"/>
+      <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
     </row>
@@ -3228,17 +3319,59 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" s="3"/>
+      <c r="M133" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N133" s="20"/>
+      <c r="O133" s="3"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3" t="s">
+      <c r="L135" s="3"/>
+      <c r="M135" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N133" s="3"/>
-      <c r="O133" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="214">
+  <mergeCells count="222">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3331,11 +3464,11 @@
     <mergeCell ref="M61:O61"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:O62"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="K63:O63"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="H64:J64"/>
     <mergeCell ref="K64:L64"/>
@@ -3350,13 +3483,15 @@
     <mergeCell ref="M66:O66"/>
     <mergeCell ref="K67:L67"/>
     <mergeCell ref="M67:O67"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="K69:O69"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="M70:O70"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="M71:O71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:O72"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="H89:J89"/>
@@ -3380,11 +3515,13 @@
     <mergeCell ref="M93:O93"/>
     <mergeCell ref="F94:G94"/>
     <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:O94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:O94"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="K95:O95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:J96"/>
     <mergeCell ref="K96:L96"/>
     <mergeCell ref="M96:O96"/>
     <mergeCell ref="K97:L97"/>
@@ -3393,22 +3530,20 @@
     <mergeCell ref="M98:O98"/>
     <mergeCell ref="K99:L99"/>
     <mergeCell ref="M99:O99"/>
-    <mergeCell ref="K100:O100"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="K101:O101"/>
     <mergeCell ref="K102:L102"/>
     <mergeCell ref="M102:O102"/>
     <mergeCell ref="K103:L103"/>
     <mergeCell ref="M103:O103"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="K119:O119"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="M104:O104"/>
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="F120:G120"/>
     <mergeCell ref="H120:J120"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="K120:O120"/>
+    <mergeCell ref="A121:D121"/>
     <mergeCell ref="F121:G121"/>
     <mergeCell ref="H121:J121"/>
     <mergeCell ref="K121:L121"/>
@@ -3423,36 +3558,42 @@
     <mergeCell ref="M123:O123"/>
     <mergeCell ref="F124:G124"/>
     <mergeCell ref="H124:J124"/>
-    <mergeCell ref="K124:O124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:O124"/>
     <mergeCell ref="F125:G125"/>
     <mergeCell ref="H125:J125"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="M125:O125"/>
     <mergeCell ref="F126:G126"/>
     <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="K126:O126"/>
     <mergeCell ref="F127:G127"/>
     <mergeCell ref="H127:J127"/>
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="M127:O127"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H128:J128"/>
     <mergeCell ref="K128:L128"/>
     <mergeCell ref="M128:O128"/>
     <mergeCell ref="K129:L129"/>
     <mergeCell ref="M129:O129"/>
-    <mergeCell ref="K130:O130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:O130"/>
     <mergeCell ref="K131:L131"/>
     <mergeCell ref="M131:O131"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="K132:O132"/>
     <mergeCell ref="K133:L133"/>
     <mergeCell ref="M133:O133"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:O135"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A30:O31"/>
     <mergeCell ref="A55:O56"/>
     <mergeCell ref="P55:R71"/>
     <mergeCell ref="A87:O88"/>
-    <mergeCell ref="A117:O118"/>
+    <mergeCell ref="A118:O119"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3462,10 +3603,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128:O128"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140:J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3475,40 +3616,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -3617,185 +3758,185 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="10" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="10" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
@@ -3904,185 +4045,185 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
@@ -4233,185 +4374,185 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G50" s="6"/>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="9" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="10" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="10" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="10" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="10" t="s">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="10" t="s">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="2" t="s">
@@ -4562,149 +4703,149 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G75" s="6"/>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="9" t="s">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="10" t="s">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="11" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="10" t="s">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="11" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="10" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="11" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="10" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G80" s="10"/>
-      <c r="H80" s="11" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="10" t="s">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="11" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="1" t="s">
@@ -4724,11 +4865,11 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="14" t="s">
+      <c r="P92" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="1"/>
@@ -4746,9 +4887,9 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2" t="s">
@@ -4776,9 +4917,9 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="3" t="s">
@@ -4808,9 +4949,9 @@
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="4"/>
@@ -4836,9 +4977,9 @@
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="4"/>
@@ -4864,9 +5005,9 @@
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="15"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="4"/>
@@ -4890,9 +5031,9 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="4"/>
@@ -4910,24 +5051,24 @@
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="6" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="L99" s="6"/>
-      <c r="M99" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
+      <c r="M99" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="3" t="s">
         <v>22</v>
       </c>
@@ -4938,443 +5079,477 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L100" s="6"/>
+      <c r="M100" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" s="6"/>
+      <c r="M101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L100" s="6"/>
-      <c r="M100" s="8" t="s">
+      <c r="L102" s="6"/>
+      <c r="M102" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
-    </row>
-    <row r="101" spans="1:18">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L101" s="6"/>
-      <c r="M101" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-    </row>
-    <row r="102" spans="1:18">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L102" s="6"/>
-      <c r="M102" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
       <c r="K103" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103" s="6"/>
+      <c r="M103" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L104" s="6"/>
+      <c r="M104" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L103" s="6"/>
-      <c r="M103" s="8" t="s">
+      <c r="L105" s="6"/>
+      <c r="M105" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="15"/>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L104" s="6"/>
-      <c r="M104" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N104" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O104" s="8"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="15"/>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L105" s="6"/>
-      <c r="M105" s="8" t="s">
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="9" t="s">
+      <c r="L106" s="6"/>
+      <c r="M106" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="15"/>
+      <c r="N106" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O106" s="7"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="10" t="s">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="11" t="s">
+      <c r="L109" s="9"/>
+      <c r="M109" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="15"/>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="10" t="s">
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L108" s="10"/>
-      <c r="M108" s="11" t="s">
+      <c r="L110" s="9"/>
+      <c r="M110" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-    </row>
-    <row r="109" spans="1:18">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="10" t="s">
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L109" s="10"/>
-      <c r="M109" s="11" t="s">
+      <c r="L111" s="9"/>
+      <c r="M111" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-    </row>
-    <row r="110" spans="1:18">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="10" t="s">
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L110" s="10"/>
-      <c r="M110" s="11" t="s">
+      <c r="L112" s="9"/>
+      <c r="M112" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="15"/>
-    </row>
-    <row r="111" spans="1:18">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="10" t="s">
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L111" s="10"/>
-      <c r="M111" s="11" t="s">
+      <c r="L113" s="9"/>
+      <c r="M113" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="15"/>
-    </row>
-    <row r="123" spans="1:18">
-      <c r="A123" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="14" t="s">
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L114" s="9"/>
+      <c r="M114" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L115" s="9"/>
+      <c r="M115" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="Q123" s="14"/>
-      <c r="R123" s="14"/>
-    </row>
-    <row r="124" spans="1:18">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="14"/>
-      <c r="Q124" s="14"/>
-      <c r="R124" s="14"/>
-    </row>
-    <row r="125" spans="1:18">
-      <c r="A125" s="2" t="s">
+      <c r="Q125" s="17"/>
+      <c r="R125" s="17"/>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
+      <c r="R126" s="17"/>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2" t="s">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2" t="s">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2" t="s">
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="15"/>
-    </row>
-    <row r="126" spans="1:18">
-      <c r="A126" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3" t="s">
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
+      <c r="R127" s="18"/>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="15"/>
-      <c r="R126" s="15"/>
-    </row>
-    <row r="127" spans="1:18">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="15"/>
-      <c r="R127" s="15"/>
-    </row>
-    <row r="128" spans="1:18">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="L128" s="3"/>
       <c r="M128" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="15"/>
-      <c r="Q128" s="15"/>
-      <c r="R128" s="15"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="18"/>
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="4"/>
@@ -5383,22 +5558,26 @@
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="K129" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
+      <c r="M129" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="15"/>
+      <c r="P129" s="18"/>
+      <c r="Q129" s="18"/>
+      <c r="R129" s="18"/>
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="4"/>
@@ -5407,239 +5586,291 @@
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="K130" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
+      <c r="M130" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
-      <c r="P130" s="15"/>
-      <c r="Q130" s="15"/>
-      <c r="R130" s="15"/>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="18"/>
+      <c r="R130" s="18"/>
     </row>
     <row r="131" spans="1:18">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="6" t="s">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
+      <c r="R131" s="18"/>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="18"/>
+      <c r="Q132" s="18"/>
+      <c r="R132" s="18"/>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="8" t="s">
+      <c r="G133" s="6"/>
+      <c r="H133" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="15"/>
-      <c r="Q131" s="15"/>
-      <c r="R131" s="15"/>
-    </row>
-    <row r="132" spans="1:18">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="9" t="s">
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
+      <c r="R133" s="18"/>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="15"/>
-      <c r="Q132" s="15"/>
-      <c r="R132" s="15"/>
-    </row>
-    <row r="133" spans="1:18">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="10" t="s">
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="18"/>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G133" s="10"/>
-      <c r="H133" s="11" t="s">
+      <c r="G135" s="9"/>
+      <c r="H135" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="15"/>
-      <c r="Q133" s="15"/>
-      <c r="R133" s="15"/>
-    </row>
-    <row r="134" spans="1:18">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="10" t="s">
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="18"/>
+      <c r="Q135" s="18"/>
+      <c r="R135" s="18"/>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="11" t="s">
+      <c r="G136" s="9"/>
+      <c r="H136" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="15"/>
-      <c r="Q134" s="15"/>
-      <c r="R134" s="15"/>
-    </row>
-    <row r="135" spans="1:18">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="10" t="s">
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="18"/>
+      <c r="Q136" s="18"/>
+      <c r="R136" s="18"/>
+    </row>
+    <row r="137" spans="1:18">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G135" s="10"/>
-      <c r="H135" s="11" t="s">
+      <c r="G137" s="9"/>
+      <c r="H137" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="15"/>
-      <c r="Q135" s="15"/>
-      <c r="R135" s="15"/>
-    </row>
-    <row r="136" spans="1:18">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="10" t="s">
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="18"/>
+      <c r="Q137" s="18"/>
+      <c r="R137" s="18"/>
+    </row>
+    <row r="138" spans="1:18">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G136" s="10"/>
-      <c r="H136" s="11" t="s">
+      <c r="G138" s="9"/>
+      <c r="H138" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="15"/>
-      <c r="Q136" s="15"/>
-      <c r="R136" s="15"/>
-    </row>
-    <row r="137" spans="1:18">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="10" t="s">
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="18"/>
+      <c r="Q138" s="18"/>
+      <c r="R138" s="18"/>
+    </row>
+    <row r="139" spans="1:18">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G137" s="10"/>
-      <c r="H137" s="11" t="s">
+      <c r="G139" s="9"/>
+      <c r="H139" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="15"/>
-      <c r="Q137" s="15"/>
-      <c r="R137" s="15"/>
-    </row>
-    <row r="138" spans="1:18">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G138" s="10"/>
-      <c r="H138" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-    </row>
-    <row r="139" spans="1:18">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="10" t="s">
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="18"/>
+      <c r="Q139" s="18"/>
+      <c r="R139" s="18"/>
+    </row>
+    <row r="140" spans="1:18">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G140" s="9"/>
+      <c r="H140" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="11" t="s">
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="18"/>
+      <c r="Q140" s="18"/>
+      <c r="R140" s="18"/>
+    </row>
+    <row r="141" spans="1:18">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="15"/>
-      <c r="Q139" s="15"/>
-      <c r="R139" s="15"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="18"/>
+      <c r="Q141" s="18"/>
+      <c r="R141" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="226">
+  <mergeCells count="238">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5798,8 +6029,12 @@
     <mergeCell ref="H100:J100"/>
     <mergeCell ref="K100:L100"/>
     <mergeCell ref="M100:O100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:J101"/>
     <mergeCell ref="K101:L101"/>
     <mergeCell ref="M101:O101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:J102"/>
     <mergeCell ref="K102:L102"/>
     <mergeCell ref="M102:O102"/>
     <mergeCell ref="K103:L103"/>
@@ -5808,46 +6043,50 @@
     <mergeCell ref="M104:O104"/>
     <mergeCell ref="K105:L105"/>
     <mergeCell ref="M105:O105"/>
-    <mergeCell ref="K106:O106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:O106"/>
     <mergeCell ref="K107:L107"/>
     <mergeCell ref="M107:O107"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="K108:O108"/>
     <mergeCell ref="K109:L109"/>
     <mergeCell ref="M109:O109"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="M110:O110"/>
     <mergeCell ref="K111:L111"/>
     <mergeCell ref="M111:O111"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="K125:O125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M115:O115"/>
+    <mergeCell ref="A127:D127"/>
     <mergeCell ref="F127:G127"/>
     <mergeCell ref="H127:J127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="K127:O127"/>
+    <mergeCell ref="A128:D128"/>
     <mergeCell ref="F128:G128"/>
     <mergeCell ref="H128:J128"/>
     <mergeCell ref="K128:L128"/>
     <mergeCell ref="M128:O128"/>
     <mergeCell ref="F129:G129"/>
     <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K129:O129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="M129:O129"/>
     <mergeCell ref="F130:G130"/>
     <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:O130"/>
     <mergeCell ref="F131:G131"/>
     <mergeCell ref="H131:J131"/>
-    <mergeCell ref="F132:J132"/>
+    <mergeCell ref="K131:O131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="H132:J132"/>
     <mergeCell ref="F133:G133"/>
     <mergeCell ref="H133:J133"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="F134:J134"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="H135:J135"/>
     <mergeCell ref="F136:G136"/>
@@ -5858,14 +6097,18 @@
     <mergeCell ref="H138:J138"/>
     <mergeCell ref="F139:G139"/>
     <mergeCell ref="H139:J139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:J141"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A21:O22"/>
     <mergeCell ref="A42:O43"/>
     <mergeCell ref="A67:O68"/>
     <mergeCell ref="A92:O93"/>
     <mergeCell ref="P92:R93"/>
-    <mergeCell ref="A123:O124"/>
-    <mergeCell ref="P123:R124"/>
+    <mergeCell ref="A125:O126"/>
+    <mergeCell ref="P125:R126"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5876,10 +6119,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:O59"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5887,9 +6130,9 @@
     <col min="4" max="4" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5905,8 +6148,13 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5922,8 +6170,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5949,10 +6200,17 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5978,8 +6236,15 @@
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6003,8 +6268,15 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6024,12 +6296,15 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6049,8 +6324,11 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6070,19 +6348,22 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -6091,19 +6372,22 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6112,19 +6396,22 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="6" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -6133,19 +6420,22 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="6" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6154,155 +6444,179 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10" t="s">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6365,7 +6679,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6445,11 +6759,11 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -6461,7 +6775,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6524,7 +6838,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6604,11 +6918,11 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -6620,7 +6934,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6683,7 +6997,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6711,45 +7025,45 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8" t="s">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8" t="s">
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8" t="s">
+      <c r="L74" s="7"/>
+      <c r="M74" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8" t="s">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="3" t="s">
         <v>17</v>
       </c>
@@ -6761,85 +7075,85 @@
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8" t="s">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8" t="s">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8" t="s">
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8" t="s">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8" t="s">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="3" t="s">
         <v>40</v>
       </c>
@@ -6851,16 +7165,16 @@
       <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
       <c r="K80" s="3" t="s">
         <v>42</v>
       </c>
@@ -6872,346 +7186,350 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
       <c r="K81" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
       <c r="K82" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
       <c r="K83" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
       <c r="K84" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
       <c r="K85" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L85" s="3"/>
-      <c r="M85" s="8" t="s">
+      <c r="M85" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L86" s="6"/>
-      <c r="M86" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
+      <c r="M86" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="K87" s="9" t="s">
+      <c r="K87" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L87" s="6"/>
+      <c r="M87" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="10" t="s">
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L88" s="10"/>
-      <c r="M88" s="11" t="s">
+      <c r="L89" s="9"/>
+      <c r="M89" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="10" t="s">
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="11" t="s">
+      <c r="L90" s="9"/>
+      <c r="M90" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="10" t="s">
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L90" s="10"/>
-      <c r="M90" s="11" t="s">
+      <c r="L91" s="9"/>
+      <c r="M91" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="10" t="s">
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="11" t="s">
+      <c r="L92" s="9"/>
+      <c r="M92" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="10" t="s">
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="11" t="s">
+      <c r="L93" s="9"/>
+      <c r="M93" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-    </row>
-    <row r="93" spans="11:15">
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
     </row>
     <row r="94" spans="11:15">
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
     </row>
     <row r="95" spans="11:15">
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
     </row>
     <row r="96" spans="11:15">
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
     </row>
     <row r="97" spans="11:15">
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
     </row>
     <row r="98" spans="11:15">
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
     </row>
     <row r="99" spans="11:15">
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
     </row>
     <row r="100" spans="11:15">
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
     </row>
     <row r="101" spans="11:15">
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
     </row>
     <row r="102" spans="11:15">
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+    </row>
+    <row r="103" spans="11:15">
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -7228,82 +7546,74 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2" t="s">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2" t="s">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2" t="s">
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F108" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -7314,407 +7624,436 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8" t="s">
+      <c r="L109" s="7"/>
+      <c r="M109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="3" t="s">
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3" t="s">
+      <c r="L110" s="3"/>
+      <c r="M110" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8" t="s">
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8" t="s">
+      <c r="G111" s="7"/>
+      <c r="H111" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8" t="s">
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="8" t="s">
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8" t="s">
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
       <c r="K112" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
       <c r="K113" s="3" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
       <c r="K114" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
       <c r="K115" s="3" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
       <c r="K116" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
       <c r="K117" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
       <c r="K118" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
       <c r="K119" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L119" s="3"/>
-      <c r="M119" s="8" t="s">
+      <c r="M119" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L120" s="3"/>
+      <c r="M120" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L120" s="6"/>
-      <c r="M120" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
-      <c r="K121" s="9" t="s">
+      <c r="K121" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L121" s="6"/>
+      <c r="M121" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L122" s="6"/>
+      <c r="M122" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="10" t="s">
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L122" s="10"/>
-      <c r="M122" s="11" t="s">
+      <c r="L124" s="9"/>
+      <c r="M124" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="10" t="s">
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L123" s="10"/>
-      <c r="M123" s="11" t="s">
+      <c r="L125" s="9"/>
+      <c r="M125" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N123" s="11"/>
-      <c r="O123" s="11"/>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="10" t="s">
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L124" s="10"/>
-      <c r="M124" s="11" t="s">
+      <c r="L126" s="9"/>
+      <c r="M126" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N124" s="11"/>
-      <c r="O124" s="11"/>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="10" t="s">
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L125" s="10"/>
-      <c r="M125" s="11" t="s">
+      <c r="L127" s="9"/>
+      <c r="M127" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N125" s="11"/>
-      <c r="O125" s="11"/>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="10" t="s">
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L126" s="10"/>
-      <c r="M126" s="11" t="s">
+      <c r="L128" s="9"/>
+      <c r="M128" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N126" s="11"/>
-      <c r="O126" s="11"/>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -7731,82 +8070,74 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2" t="s">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2" t="s">
+      <c r="G143" s="2"/>
+      <c r="H143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2" t="s">
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3" t="s">
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L143" s="3"/>
-      <c r="M143" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N143" s="3"/>
-      <c r="O143" s="3"/>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L144" s="3"/>
       <c r="M144" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
@@ -7818,79 +8149,107 @@
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
+      <c r="M145" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L146" s="8"/>
-      <c r="M146" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
-      <c r="K147" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L147" s="8"/>
+      <c r="K147" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L147" s="7"/>
       <c r="M147" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
     </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L148" s="7"/>
+      <c r="M148" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="229">
+  <mergeCells count="237">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
@@ -8011,9 +8370,9 @@
     <mergeCell ref="M85:O85"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="M86:O86"/>
-    <mergeCell ref="K87:O87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="K88:O88"/>
     <mergeCell ref="K89:L89"/>
     <mergeCell ref="M89:O89"/>
     <mergeCell ref="K90:L90"/>
@@ -8022,15 +8381,13 @@
     <mergeCell ref="M91:O91"/>
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="M92:O92"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:O106"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="M93:O93"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="F107:G107"/>
     <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="K107:O107"/>
+    <mergeCell ref="A108:D108"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="H108:J108"/>
     <mergeCell ref="K108:L108"/>
@@ -8041,21 +8398,23 @@
     <mergeCell ref="M109:O109"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
-    <mergeCell ref="K110:O110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="M110:O110"/>
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="H111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="K111:O111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
     <mergeCell ref="K112:L112"/>
     <mergeCell ref="M112:O112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:J113"/>
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="M113:O113"/>
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="H114:J114"/>
     <mergeCell ref="K114:L114"/>
     <mergeCell ref="M114:O114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:J115"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
     <mergeCell ref="K116:L116"/>
@@ -8068,45 +8427,50 @@
     <mergeCell ref="M119:O119"/>
     <mergeCell ref="K120:L120"/>
     <mergeCell ref="M120:O120"/>
-    <mergeCell ref="K121:O121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M121:O121"/>
     <mergeCell ref="K122:L122"/>
     <mergeCell ref="M122:O122"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="K123:O123"/>
     <mergeCell ref="K124:L124"/>
     <mergeCell ref="M124:O124"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="M125:O125"/>
     <mergeCell ref="K126:L126"/>
     <mergeCell ref="M126:O126"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:O142"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:O128"/>
     <mergeCell ref="A143:D143"/>
     <mergeCell ref="F143:G143"/>
     <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:O143"/>
+    <mergeCell ref="K143:O143"/>
+    <mergeCell ref="A144:D144"/>
     <mergeCell ref="F144:G144"/>
     <mergeCell ref="H144:J144"/>
     <mergeCell ref="K144:L144"/>
     <mergeCell ref="M144:O144"/>
     <mergeCell ref="F145:G145"/>
     <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:O145"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:O145"/>
     <mergeCell ref="F146:G146"/>
     <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="K146:O146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:J147"/>
     <mergeCell ref="K147:L147"/>
     <mergeCell ref="M147:O147"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="M148:O148"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A32:O33"/>
     <mergeCell ref="A52:O53"/>
     <mergeCell ref="A70:O71"/>
-    <mergeCell ref="A104:O105"/>
-    <mergeCell ref="A140:O141"/>
+    <mergeCell ref="P1:R2"/>
+    <mergeCell ref="A105:O106"/>
+    <mergeCell ref="A141:O142"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8117,14 +8481,1405 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" s="9"/>
+      <c r="M71" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" s="9"/>
+      <c r="M72" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="9"/>
+      <c r="M73" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" s="9"/>
+      <c r="M74" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L75" s="9"/>
+      <c r="M75" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="158">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="K70:O70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A56:O57"/>
+    <mergeCell ref="A26:O27"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360"/>
+    <workbookView windowWidth="23025" windowHeight="9360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>获取销售点列表</t>
   </si>
@@ -220,6 +220,21 @@
     <t>关键字</t>
   </si>
   <si>
+    <t>获取总部销售点Id</t>
+  </si>
+  <si>
+    <t>/s/getFirstBranchId.action</t>
+  </si>
+  <si>
+    <t>1代表请求成功，2代表失败</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>总部销售点Id</t>
+  </si>
+  <si>
     <t>获取库存盘点记录</t>
   </si>
   <si>
@@ -229,9 +244,6 @@
     <t>/s/listRepertoryRecord.action</t>
   </si>
   <si>
-    <t>1代表请求成功，2代表失败</t>
-  </si>
-  <si>
     <t>开始时间 和 结束时间 必须同时填或同时不填</t>
   </si>
   <si>
@@ -313,9 +325,6 @@
     <t>/s/updateRepertory.action</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>goodsInfo(json数组)</t>
   </si>
   <si>
@@ -395,6 +404,12 @@
   </si>
   <si>
     <t>/s/listRepertoryApplyByProposer.action</t>
+  </si>
+  <si>
+    <t>applyCode</t>
+  </si>
+  <si>
+    <t>申请单号</t>
   </si>
   <si>
     <t>applyStatus</t>
@@ -465,10 +480,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -508,9 +523,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,14 +546,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,60 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,9 +621,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,13 +703,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,43 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +811,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,55 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,33 +864,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -911,11 +899,38 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,10 +972,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,91 +984,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,7 +1077,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1074,32 +1089,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,12 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1520,10 +1529,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126:G126"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96:L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1532,40 +1541,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -1823,11 +1832,11 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1"/>
@@ -1845,9 +1854,9 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
@@ -1875,9 +1884,9 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3" t="s">
@@ -1907,9 +1916,9 @@
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="4"/>
@@ -1935,9 +1944,9 @@
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="4"/>
@@ -1963,9 +1972,9 @@
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="4"/>
@@ -1991,9 +2000,9 @@
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="4"/>
@@ -2019,9 +2028,9 @@
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="4"/>
@@ -2045,9 +2054,9 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="4"/>
@@ -2064,18 +2073,18 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22" t="s">
+      <c r="L35" s="20"/>
+      <c r="M35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="4"/>
@@ -2097,9 +2106,9 @@
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="4"/>
@@ -2121,9 +2130,9 @@
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="4"/>
@@ -2145,9 +2154,9 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="4"/>
@@ -2169,9 +2178,9 @@
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="4"/>
@@ -2193,9 +2202,9 @@
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="4"/>
@@ -2208,16 +2217,16 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="23"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="4"/>
@@ -2234,14 +2243,14 @@
         <v>53</v>
       </c>
       <c r="L42" s="3"/>
-      <c r="M42" s="23" t="s">
+      <c r="M42" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N42" s="23"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="4"/>
@@ -2263,9 +2272,9 @@
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="4"/>
@@ -2287,9 +2296,9 @@
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
@@ -2517,15 +2526,15 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="22" t="s">
+      <c r="K68" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22" t="s">
+      <c r="L68" s="20"/>
+      <c r="M68" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="4"/>
@@ -2643,10 +2652,10 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="23" t="s">
+      <c r="K74" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L74" s="23"/>
+      <c r="L74" s="21"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -2666,10 +2675,10 @@
         <v>53</v>
       </c>
       <c r="L75" s="3"/>
-      <c r="M75" s="23" t="s">
+      <c r="M75" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N75" s="23"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
@@ -2940,15 +2949,15 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="22" t="s">
+      <c r="K100" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22" t="s">
+      <c r="L100" s="20"/>
+      <c r="M100" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="4"/>
@@ -3066,10 +3075,10 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="23" t="s">
+      <c r="K106" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L106" s="23"/>
+      <c r="L106" s="21"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -3089,10 +3098,10 @@
         <v>53</v>
       </c>
       <c r="L107" s="3"/>
-      <c r="M107" s="23" t="s">
+      <c r="M107" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N107" s="23"/>
+      <c r="N107" s="21"/>
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15">
@@ -3367,15 +3376,15 @@
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="22" t="s">
+      <c r="K129" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L129" s="22"/>
-      <c r="M129" s="22" t="s">
+      <c r="L129" s="20"/>
+      <c r="M129" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N129" s="22"/>
-      <c r="O129" s="22"/>
+      <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="4"/>
@@ -3493,10 +3502,10 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="23" t="s">
+      <c r="K135" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L135" s="23"/>
+      <c r="L135" s="21"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -3516,10 +3525,10 @@
         <v>53</v>
       </c>
       <c r="L136" s="3"/>
-      <c r="M136" s="23" t="s">
+      <c r="M136" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N136" s="23"/>
+      <c r="N136" s="21"/>
       <c r="O136" s="3"/>
     </row>
     <row r="137" spans="1:15">
@@ -3564,8 +3573,150 @@
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
     </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="244">
+  <mergeCells count="262">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3804,12 +3955,30 @@
     <mergeCell ref="M137:O137"/>
     <mergeCell ref="K138:L138"/>
     <mergeCell ref="M138:O138"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:O154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:O156"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M157:O157"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A26:O27"/>
     <mergeCell ref="A59:O60"/>
     <mergeCell ref="P26:R44"/>
     <mergeCell ref="A91:O92"/>
     <mergeCell ref="A120:O121"/>
+    <mergeCell ref="A152:O153"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3819,10 +3988,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:O25"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3834,7 +4003,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3850,11 +4019,11 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="P1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1"/>
@@ -3872,9 +4041,9 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
@@ -3902,13 +4071,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3930,12 +4099,12 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
@@ -3992,9 +4161,9 @@
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="4"/>
@@ -4018,9 +4187,9 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="4"/>
@@ -4038,17 +4207,17 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4"/>
@@ -4066,17 +4235,17 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4"/>
@@ -4085,11 +4254,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4102,9 +4271,9 @@
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="11"/>
@@ -4113,11 +4282,11 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4130,9 +4299,9 @@
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="5"/>
@@ -4146,17 +4315,17 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="5"/>
@@ -4170,17 +4339,17 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="5"/>
@@ -4194,17 +4363,17 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="5"/>
@@ -4218,19 +4387,19 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="5"/>
@@ -4244,17 +4413,17 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="5"/>
@@ -4268,15 +4437,15 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="5"/>
@@ -4298,9 +4467,9 @@
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="5"/>
@@ -4314,17 +4483,17 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="5"/>
@@ -4338,17 +4507,17 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="5"/>
@@ -4362,17 +4531,17 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="5"/>
@@ -4386,17 +4555,17 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="5"/>
@@ -4410,17 +4579,17 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="9" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="5"/>
@@ -4434,17 +4603,17 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="5"/>
@@ -4458,44 +4627,46 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="9" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="10" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4510,99 +4681,93 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
+      <c r="P36" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2" t="s">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="4"/>
@@ -4611,26 +4776,26 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="4"/>
@@ -4639,22 +4804,26 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="4"/>
@@ -4663,11 +4832,11 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -4676,33 +4845,33 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="5"/>
@@ -4710,21 +4879,23 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="F44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="5"/>
@@ -4732,23 +4903,21 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="F45" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="5"/>
@@ -4757,11 +4926,11 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -4770,9 +4939,9 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="5"/>
@@ -4781,11 +4950,11 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -4794,9 +4963,9 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="5"/>
@@ -4805,11 +4974,11 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -4818,9 +4987,9 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="5"/>
@@ -4829,11 +4998,11 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -4842,9 +5011,9 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="5"/>
@@ -4853,11 +5022,11 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="9" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -4866,9 +5035,9 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="5"/>
@@ -4877,11 +5046,11 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -4890,31 +5059,38 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4931,82 +5107,74 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2" t="s">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F63" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -5018,20 +5186,20 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -5042,20 +5210,22 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="F65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="M65" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
@@ -5065,20 +5235,22 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L66" s="6"/>
-      <c r="M66" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
+      <c r="F66" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="4"/>
@@ -5092,11 +5264,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
@@ -5113,53 +5285,53 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="6" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="6" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="7" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
@@ -5176,11 +5348,11 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
@@ -5197,11 +5369,11 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
@@ -5218,11 +5390,11 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
@@ -5239,11 +5411,11 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
@@ -5259,13 +5431,15 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
+      <c r="K75" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L75" s="6"/>
+      <c r="M75" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="5"/>
@@ -5278,15 +5452,13 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
+      <c r="K76" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="5"/>
@@ -5300,11 +5472,11 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -5321,11 +5493,11 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -5342,11 +5514,11 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="10" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -5363,11 +5535,11 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="10" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -5384,11 +5556,11 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="9" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -5405,11 +5577,11 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="9" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -5426,17 +5598,59 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="9" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="10" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
     </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L84" s="9"/>
+      <c r="M84" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" s="9"/>
+      <c r="M85" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="171">
+  <mergeCells count="175">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5500,15 +5714,13 @@
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="K39:L39"/>
@@ -5519,14 +5731,16 @@
     <mergeCell ref="M40:O40"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:O41"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="F45:J45"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="F47:G47"/>
@@ -5539,15 +5753,13 @@
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="H51:J51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="A63:D63"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
     <mergeCell ref="K63:L63"/>
@@ -5558,11 +5770,11 @@
     <mergeCell ref="M64:O64"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:O65"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="K66:O66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:J67"/>
     <mergeCell ref="K67:L67"/>
@@ -5575,6 +5787,8 @@
     <mergeCell ref="H69:J69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:O69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="M70:O70"/>
     <mergeCell ref="K71:L71"/>
@@ -5585,9 +5799,9 @@
     <mergeCell ref="M73:O73"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="M74:O74"/>
-    <mergeCell ref="K75:O75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="K76:O76"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="M77:O77"/>
     <mergeCell ref="K78:L78"/>
@@ -5602,12 +5816,16 @@
     <mergeCell ref="M82:O82"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="M83:O83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:O84"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:O85"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
-    <mergeCell ref="A35:O36"/>
-    <mergeCell ref="P35:R36"/>
     <mergeCell ref="P4:R5"/>
-    <mergeCell ref="A59:O60"/>
+    <mergeCell ref="A36:O37"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="A60:O61"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5618,10 +5836,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R150"/>
+  <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116:J117"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:O108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5631,7 +5849,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5648,7 +5866,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -5700,7 +5918,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="14">
@@ -5709,7 +5927,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5731,12 +5949,12 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="14">
@@ -5768,7 +5986,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="14">
@@ -5791,11 +6009,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -5858,11 +6076,11 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -5882,11 +6100,11 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5906,11 +6124,11 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5930,11 +6148,11 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5954,11 +6172,11 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -5978,7 +6196,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -6076,7 +6294,7 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -6100,7 +6318,7 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -6115,7 +6333,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6178,7 +6396,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6200,7 +6418,7 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -6258,11 +6476,11 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -6274,7 +6492,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6337,7 +6555,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6359,7 +6577,7 @@
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -6417,11 +6635,11 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -6433,7 +6651,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6496,7 +6714,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6518,7 +6736,7 @@
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -6612,11 +6830,11 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -6633,14 +6851,14 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L78" s="3"/>
-      <c r="M78" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
+      <c r="M78" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="5"/>
@@ -6654,11 +6872,11 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="3" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -6675,11 +6893,11 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -6696,11 +6914,11 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="3" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -6717,11 +6935,11 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -6738,11 +6956,11 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -6759,11 +6977,11 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -6780,14 +6998,14 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L85" s="3"/>
-      <c r="M85" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
+      <c r="M85" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="5"/>
@@ -6800,10 +7018,10 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L86" s="6"/>
+      <c r="K86" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L86" s="3"/>
       <c r="M86" s="7" t="s">
         <v>89</v>
       </c>
@@ -6822,11 +7040,11 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="6" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
@@ -6837,18 +7055,20 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L88" s="6"/>
+      <c r="M88" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="5"/>
@@ -6861,15 +7081,13 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L89" s="9"/>
-      <c r="M89" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
+      <c r="K89" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="5"/>
@@ -6883,11 +7101,11 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L90" s="9"/>
       <c r="M90" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -6904,11 +7122,11 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L91" s="9"/>
       <c r="M91" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -6925,11 +7143,11 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L92" s="9"/>
       <c r="M92" s="10" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -6946,11 +7164,11 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L93" s="9"/>
       <c r="M93" s="10" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
@@ -6967,28 +7185,56 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L94" s="9"/>
       <c r="M94" s="10" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
     </row>
-    <row r="95" spans="11:15">
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-    </row>
-    <row r="96" spans="11:15">
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
+    <row r="95" spans="1:15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L95" s="9"/>
+      <c r="M95" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L96" s="9"/>
+      <c r="M96" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
     </row>
     <row r="97" spans="11:15">
       <c r="K97" s="15"/>
@@ -7046,32 +7292,17 @@
       <c r="N104" s="15"/>
       <c r="O104" s="15"/>
     </row>
-    <row r="106" spans="1:18">
-      <c r="A106" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
+    <row r="105" spans="11:15">
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -7086,90 +7317,87 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="16"/>
+      <c r="P107" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="Q107" s="16"/>
       <c r="R107" s="16"/>
     </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:18">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2" t="s">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2" t="s">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2" t="s">
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
+      <c r="K110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="4"/>
@@ -7177,47 +7405,49 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
       <c r="F112" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-      <c r="K112" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
+      <c r="K112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="5"/>
@@ -7226,23 +7456,21 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
-      <c r="K113" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
+      <c r="K113" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="5"/>
@@ -7250,21 +7478,21 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="F114" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
       <c r="K114" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -7276,23 +7504,23 @@
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="3" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="L115" s="3"/>
-      <c r="M115" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
+      <c r="M115" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="5"/>
@@ -7301,20 +7529,20 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="3" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -7326,20 +7554,20 @@
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -7350,17 +7578,21 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
+      <c r="F118" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -7377,11 +7609,11 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -7398,11 +7630,11 @@
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
@@ -7419,14 +7651,14 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L121" s="3"/>
-      <c r="M121" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="5"/>
@@ -7439,15 +7671,15 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
-      <c r="K122" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L122" s="6"/>
-      <c r="M122" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
+      <c r="K122" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="5"/>
@@ -7455,17 +7687,17 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L123" s="6"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L123" s="3"/>
       <c r="M123" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
@@ -7481,13 +7713,15 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
+      <c r="K124" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L124" s="6"/>
+      <c r="M124" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="5"/>
@@ -7500,15 +7734,15 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L125" s="9"/>
-      <c r="M125" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
+      <c r="K125" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L125" s="6"/>
+      <c r="M125" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="5"/>
@@ -7521,15 +7755,13 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L126" s="9"/>
-      <c r="M126" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
+      <c r="K126" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="5"/>
@@ -7543,11 +7775,11 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L127" s="9"/>
       <c r="M127" s="10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
@@ -7564,11 +7796,11 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L128" s="9"/>
       <c r="M128" s="10" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
@@ -7585,11 +7817,11 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L129" s="9"/>
       <c r="M129" s="10" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
@@ -7606,199 +7838,262 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L130" s="9"/>
       <c r="M130" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
     </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
+    <row r="131" spans="1:15">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L131" s="9"/>
+      <c r="M131" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L132" s="9"/>
+      <c r="M132" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L133" s="9"/>
+      <c r="M133" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2" t="s">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2" t="s">
+      <c r="G147" s="2"/>
+      <c r="H147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2" t="s">
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3" t="s">
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F146" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N146" s="3"/>
-      <c r="O146" s="3"/>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N147" s="3"/>
-      <c r="O147" s="3"/>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
+      <c r="M148" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L149" s="7"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L149" s="3"/>
       <c r="M149" s="3" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L150" s="7"/>
-      <c r="M150" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
     </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L151" s="7"/>
+      <c r="M151" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L152" s="7"/>
+      <c r="M152" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="246">
+  <mergeCells count="254">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -7915,14 +8210,14 @@
     <mergeCell ref="M77:O77"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:O78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:J79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="M79:O79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="H80:J80"/>
     <mergeCell ref="K80:L80"/>
     <mergeCell ref="M80:O80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:J81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="M81:O81"/>
     <mergeCell ref="K82:L82"/>
@@ -7937,9 +8232,9 @@
     <mergeCell ref="M86:O86"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="M87:O87"/>
-    <mergeCell ref="K88:O88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="K89:O89"/>
     <mergeCell ref="K90:L90"/>
     <mergeCell ref="M90:O90"/>
     <mergeCell ref="K91:L91"/>
@@ -7950,15 +8245,15 @@
     <mergeCell ref="M93:O93"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="M94:O94"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:O108"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:O96"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="F109:G109"/>
     <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="A110:D110"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
     <mergeCell ref="K110:L110"/>
@@ -7969,11 +8264,11 @@
     <mergeCell ref="M111:O111"/>
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K112:O112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:O112"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:L113"/>
-    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="K113:O113"/>
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="H114:J114"/>
     <mergeCell ref="K114:L114"/>
@@ -7990,6 +8285,8 @@
     <mergeCell ref="H117:J117"/>
     <mergeCell ref="K117:L117"/>
     <mergeCell ref="M117:O117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:J118"/>
     <mergeCell ref="K118:L118"/>
     <mergeCell ref="M118:O118"/>
     <mergeCell ref="K119:L119"/>
@@ -8002,11 +8299,11 @@
     <mergeCell ref="M122:O122"/>
     <mergeCell ref="K123:L123"/>
     <mergeCell ref="M123:O123"/>
-    <mergeCell ref="K124:O124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:O124"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="M125:O125"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="K126:O126"/>
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="M127:O127"/>
     <mergeCell ref="K128:L128"/>
@@ -8015,36 +8312,42 @@
     <mergeCell ref="M129:O129"/>
     <mergeCell ref="K130:L130"/>
     <mergeCell ref="M130:O130"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:O145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:O133"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="F147:G147"/>
     <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="K147:O147"/>
+    <mergeCell ref="A148:D148"/>
     <mergeCell ref="F148:G148"/>
     <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:O148"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="M148:O148"/>
     <mergeCell ref="F149:G149"/>
     <mergeCell ref="H149:J149"/>
     <mergeCell ref="K149:L149"/>
     <mergeCell ref="M149:O149"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="M150:O150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:O150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="M152:O152"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A32:O33"/>
     <mergeCell ref="A52:O53"/>
     <mergeCell ref="A70:O71"/>
     <mergeCell ref="P1:R2"/>
-    <mergeCell ref="A106:O107"/>
-    <mergeCell ref="A143:O144"/>
-    <mergeCell ref="P106:R107"/>
+    <mergeCell ref="A107:O108"/>
+    <mergeCell ref="P107:R108"/>
+    <mergeCell ref="A145:O146"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8055,17 +8358,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8128,7 +8431,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8150,7 +8453,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -8196,11 +8499,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -8254,11 +8557,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -8275,7 +8578,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -8361,7 +8664,7 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -8382,7 +8685,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -8394,7 +8697,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8457,7 +8760,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8479,7 +8782,7 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -8573,11 +8876,11 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -8598,11 +8901,11 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -8614,11 +8917,11 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -8639,11 +8942,11 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -8669,11 +8972,11 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -8690,11 +8993,11 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -8711,11 +9014,11 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -8732,11 +9035,11 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -8753,7 +9056,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -8793,11 +9096,11 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -8814,11 +9117,11 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -8835,11 +9138,11 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -8856,11 +9159,11 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -8877,18 +9180,39 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="10" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+    </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -8951,7 +9275,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -8973,7 +9297,7 @@
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -9019,7 +9343,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -9033,20 +9357,20 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
@@ -9063,11 +9387,11 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -9126,11 +9450,11 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
@@ -9147,11 +9471,11 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
@@ -9168,11 +9492,11 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
@@ -9189,11 +9513,11 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
@@ -9210,7 +9534,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -9250,11 +9574,11 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -9271,11 +9595,11 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -9292,11 +9616,11 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -9313,11 +9637,11 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -9334,17 +9658,38 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="10" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
     </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L78" s="9"/>
+      <c r="M78" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="166">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -9443,20 +9788,22 @@
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:O43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:O44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:J45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="M45:O45"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:O46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="K47:L47"/>
     <mergeCell ref="M47:O47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:O48"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="H59:J59"/>
@@ -9504,6 +9851,8 @@
     <mergeCell ref="M76:O76"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="M77:O77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:O78"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A26:O27"/>
     <mergeCell ref="A57:O58"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360" activeTab="3"/>
+    <workbookView windowWidth="26385" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>获取销售点列表</t>
   </si>
@@ -247,6 +247,12 @@
     <t>开始时间 和 结束时间 必须同时填或同时不填</t>
   </si>
   <si>
+    <t>销售点Id(选填)</t>
+  </si>
+  <si>
+    <t>销售点Id(branchId)为空获取所有销售点盘点记录</t>
+  </si>
+  <si>
     <t>recordId</t>
   </si>
   <si>
@@ -319,6 +325,12 @@
     <t>调整原因</t>
   </si>
   <si>
+    <t>currentCount</t>
+  </si>
+  <si>
+    <t>总部当前库存</t>
+  </si>
+  <si>
     <t>盘点库存</t>
   </si>
   <si>
@@ -334,6 +346,12 @@
     <t>/s/getRepertoryRecord.action</t>
   </si>
   <si>
+    <t>获取当销售点前库存盘点记录</t>
+  </si>
+  <si>
+    <t>/s/listCurrentRepertoryRecord.action</t>
+  </si>
+  <si>
     <t>发起申请</t>
   </si>
   <si>
@@ -424,15 +442,15 @@
     <t>审核通过时间(时间戳)</t>
   </si>
   <si>
+    <t>当前库存</t>
+  </si>
+  <si>
     <t>审批人获取库存审批列表</t>
   </si>
   <si>
     <t>/s/listRepertoryApplyByApprover.action</t>
   </si>
   <si>
-    <t>销售点Id(选填)</t>
-  </si>
-  <si>
     <t>申请的状态(选填)</t>
   </si>
   <si>
@@ -466,6 +484,9 @@
     <t>进仓单号</t>
   </si>
   <si>
+    <t>incomeList(json数组)</t>
+  </si>
+  <si>
     <t>获取进仓单详情</t>
   </si>
   <si>
@@ -473,6 +494,12 @@
   </si>
   <si>
     <t>result(json对象)</t>
+  </si>
+  <si>
+    <t>获取当前销售点进仓单列表</t>
+  </si>
+  <si>
+    <t>/s/listCurrentRepertoryIncome.action</t>
   </si>
 </sst>
 </file>
@@ -522,18 +549,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,6 +562,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,25 +587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,6 +597,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,17 +643,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,25 +656,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,7 +730,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +796,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,49 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,73 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,16 +895,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,9 +926,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,35 +946,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +967,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -975,7 +1002,7 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,91 +1011,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,10 +1104,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,32 +1116,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1168,6 +1195,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1531,8 +1561,8 @@
   <sheetPr/>
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96:L96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1541,40 +1571,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -1832,11 +1862,11 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="19" t="s">
+      <c r="P26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1"/>
@@ -1854,9 +1884,9 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
@@ -1884,9 +1914,9 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3" t="s">
@@ -1916,9 +1946,9 @@
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="4"/>
@@ -1944,9 +1974,9 @@
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="4"/>
@@ -1972,9 +2002,9 @@
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="4"/>
@@ -2000,9 +2030,9 @@
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="4"/>
@@ -2028,9 +2058,9 @@
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="4"/>
@@ -2054,9 +2084,9 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="4"/>
@@ -2073,18 +2103,18 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20" t="s">
+      <c r="L35" s="21"/>
+      <c r="M35" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="4"/>
@@ -2106,9 +2136,9 @@
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="4"/>
@@ -2130,9 +2160,9 @@
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="4"/>
@@ -2154,9 +2184,9 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="4"/>
@@ -2178,9 +2208,9 @@
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="4"/>
@@ -2202,9 +2232,9 @@
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="4"/>
@@ -2217,16 +2247,16 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="21"/>
+      <c r="L41" s="22"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="4"/>
@@ -2243,14 +2273,14 @@
         <v>53</v>
       </c>
       <c r="L42" s="3"/>
-      <c r="M42" s="21" t="s">
+      <c r="M42" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N42" s="21"/>
+      <c r="N42" s="22"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="4"/>
@@ -2272,9 +2302,9 @@
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="4"/>
@@ -2296,9 +2326,9 @@
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
@@ -2526,15 +2556,15 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="20" t="s">
+      <c r="K68" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20" t="s">
+      <c r="L68" s="21"/>
+      <c r="M68" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="4"/>
@@ -2652,10 +2682,10 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="21" t="s">
+      <c r="K74" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L74" s="21"/>
+      <c r="L74" s="22"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -2675,10 +2705,10 @@
         <v>53</v>
       </c>
       <c r="L75" s="3"/>
-      <c r="M75" s="21" t="s">
+      <c r="M75" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N75" s="21"/>
+      <c r="N75" s="22"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
@@ -2949,15 +2979,15 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="20" t="s">
+      <c r="K100" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20" t="s">
+      <c r="L100" s="21"/>
+      <c r="M100" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N100" s="20"/>
-      <c r="O100" s="20"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="4"/>
@@ -3075,10 +3105,10 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="21" t="s">
+      <c r="K106" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L106" s="21"/>
+      <c r="L106" s="22"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -3098,10 +3128,10 @@
         <v>53</v>
       </c>
       <c r="L107" s="3"/>
-      <c r="M107" s="21" t="s">
+      <c r="M107" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N107" s="21"/>
+      <c r="N107" s="22"/>
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15">
@@ -3376,15 +3406,15 @@
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="20" t="s">
+      <c r="K129" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20" t="s">
+      <c r="L129" s="21"/>
+      <c r="M129" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N129" s="20"/>
-      <c r="O129" s="20"/>
+      <c r="N129" s="21"/>
+      <c r="O129" s="21"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="4"/>
@@ -3502,10 +3532,10 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="21" t="s">
+      <c r="K135" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L135" s="21"/>
+      <c r="L135" s="22"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -3525,10 +3555,10 @@
         <v>53</v>
       </c>
       <c r="L136" s="3"/>
-      <c r="M136" s="21" t="s">
+      <c r="M136" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="N136" s="21"/>
+      <c r="N136" s="22"/>
       <c r="O136" s="3"/>
     </row>
     <row r="137" spans="1:15">
@@ -3988,10 +4018,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:O61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4176,7 +4206,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -4187,9 +4217,11 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="P7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="4"/>
@@ -4207,17 +4239,17 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4"/>
@@ -4235,11 +4267,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -4254,11 +4286,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4282,11 +4314,11 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4315,11 +4347,11 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -4339,11 +4371,11 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -4363,11 +4395,11 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -4387,14 +4419,14 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="17"/>
@@ -4413,11 +4445,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -4437,7 +4469,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -4559,7 +4591,7 @@
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -4583,7 +4615,7 @@
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -4603,11 +4635,11 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -4627,11 +4659,11 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -4663,32 +4695,58 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
+    <row r="27" spans="1:18">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4703,93 +4761,87 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="16"/>
+      <c r="P37" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2" t="s">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="A40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F40" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -4804,20 +4856,20 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -4832,17 +4884,21 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="M42" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="17"/>
@@ -4856,11 +4912,11 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -4874,25 +4930,25 @@
       <c r="R43" s="17"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
@@ -4903,13 +4959,15 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="F45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -4925,15 +4983,13 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
+      <c r="F46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -4950,11 +5006,11 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -4974,11 +5030,11 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -4998,11 +5054,11 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="10" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -5022,11 +5078,11 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -5046,11 +5102,11 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="9" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -5070,7 +5126,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="10" t="s">
@@ -5087,27 +5143,34 @@
       <c r="Q52" s="17"/>
       <c r="R52" s="17"/>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+    <row r="53" spans="1:18">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -5124,82 +5187,74 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2" t="s">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F64" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -5211,20 +5266,20 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -5235,20 +5290,22 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="F66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="M66" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
@@ -5258,20 +5315,22 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
+      <c r="F67" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="4"/>
@@ -5306,53 +5365,53 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="6" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
       <c r="K71" s="6" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="7" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
@@ -5432,7 +5491,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="7" t="s">
@@ -5452,13 +5511,15 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
+      <c r="K76" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="5"/>
@@ -5471,15 +5532,13 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L77" s="9"/>
-      <c r="M77" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
+      <c r="K77" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="5"/>
@@ -5493,11 +5552,11 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -5514,11 +5573,11 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -5535,11 +5594,11 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -5556,11 +5615,11 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="10" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -5577,11 +5636,11 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -5598,11 +5657,11 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="9" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -5619,7 +5678,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="10" t="s">
@@ -5640,17 +5699,696 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="9" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="10" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
     </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L86" s="9"/>
+      <c r="M86" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L87" s="9"/>
+      <c r="M87" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L105" s="6"/>
+      <c r="M105" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L106" s="6"/>
+      <c r="M106" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L108" s="6"/>
+      <c r="M108" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L109" s="6"/>
+      <c r="M109" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L110" s="6"/>
+      <c r="M110" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L111" s="6"/>
+      <c r="M111" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L112" s="6"/>
+      <c r="M112" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L113" s="6"/>
+      <c r="M113" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L115" s="9"/>
+      <c r="M115" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L116" s="9"/>
+      <c r="M116" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L117" s="9"/>
+      <c r="M117" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L118" s="9"/>
+      <c r="M118" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L119" s="9"/>
+      <c r="M119" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L120" s="9"/>
+      <c r="M120" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L121" s="9"/>
+      <c r="M121" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L122" s="9"/>
+      <c r="M122" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L123" s="9"/>
+      <c r="M123" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L124" s="9"/>
+      <c r="M124" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="252">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5716,15 +6454,15 @@
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:O28"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="K40:L40"/>
@@ -5735,14 +6473,16 @@
     <mergeCell ref="M41:O41"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:O42"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:O43"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="F46:J46"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="F48:G48"/>
@@ -5755,15 +6495,13 @@
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:J52"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="H64:J64"/>
     <mergeCell ref="K64:L64"/>
@@ -5774,11 +6512,11 @@
     <mergeCell ref="M65:O65"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:O66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="K67:O67"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="H68:J68"/>
     <mergeCell ref="K68:L68"/>
@@ -5791,6 +6529,8 @@
     <mergeCell ref="H70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="M70:O70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:J71"/>
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="M71:O71"/>
     <mergeCell ref="K72:L72"/>
@@ -5801,9 +6541,9 @@
     <mergeCell ref="M74:O74"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="M75:O75"/>
-    <mergeCell ref="K76:O76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="K77:O77"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:O78"/>
     <mergeCell ref="K79:L79"/>
@@ -5820,12 +6560,87 @@
     <mergeCell ref="M84:O84"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="M85:O85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M86:O86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="M88:O88"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:O100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:O104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="K114:O114"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M115:O115"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:O125"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="P1:R2"/>
     <mergeCell ref="P4:R5"/>
-    <mergeCell ref="A36:O37"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="A60:O61"/>
+    <mergeCell ref="A37:O38"/>
+    <mergeCell ref="P37:R38"/>
+    <mergeCell ref="A61:O62"/>
+    <mergeCell ref="A98:O99"/>
+    <mergeCell ref="P7:R8"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5836,10 +6651,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R152"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:O108"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5849,7 +6664,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5866,7 +6681,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
@@ -5918,7 +6733,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="14">
@@ -5927,7 +6742,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5954,7 +6769,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="14">
@@ -5986,7 +6801,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="14">
@@ -6013,7 +6828,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -6076,11 +6891,11 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -6100,11 +6915,11 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6124,11 +6939,11 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -6148,11 +6963,11 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6172,11 +6987,11 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -6196,7 +7011,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -6294,7 +7109,7 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -6318,7 +7133,7 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -6333,7 +7148,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6396,7 +7211,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6476,11 +7291,11 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -6492,7 +7307,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6555,7 +7370,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6635,11 +7450,11 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -6651,7 +7466,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6714,7 +7529,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6830,11 +7645,11 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -6851,11 +7666,11 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
@@ -6872,11 +7687,11 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -6935,11 +7750,11 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -6956,11 +7771,11 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -6977,11 +7792,11 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -6998,11 +7813,11 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -7019,11 +7834,11 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
@@ -7040,11 +7855,11 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L87" s="6"/>
       <c r="M87" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
@@ -7061,11 +7876,11 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L88" s="6"/>
       <c r="M88" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
@@ -7082,7 +7897,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
@@ -7189,7 +8004,7 @@
       </c>
       <c r="L94" s="9"/>
       <c r="M94" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -7210,7 +8025,7 @@
       </c>
       <c r="L95" s="9"/>
       <c r="M95" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -7236,26 +8051,68 @@
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
     </row>
-    <row r="97" spans="11:15">
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-    </row>
-    <row r="98" spans="11:15">
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-    </row>
-    <row r="99" spans="11:15">
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
+    <row r="97" spans="1:15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L97" s="9"/>
+      <c r="M97" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L98" s="9"/>
+      <c r="M98" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
     </row>
     <row r="100" spans="11:15">
       <c r="K100" s="15"/>
@@ -7299,228 +8156,176 @@
       <c r="N105" s="15"/>
       <c r="O105" s="15"/>
     </row>
-    <row r="107" spans="1:18">
-      <c r="A107" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="16" t="s">
+    <row r="106" spans="11:15">
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+    </row>
+    <row r="107" spans="11:15">
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+    </row>
+    <row r="108" spans="11:15">
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q107" s="16"/>
-      <c r="R107" s="16"/>
-    </row>
-    <row r="108" spans="1:18">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="16"/>
-      <c r="Q108" s="16"/>
-      <c r="R108" s="16"/>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="2" t="s">
+      <c r="Q110" s="16"/>
+      <c r="R110" s="16"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16"/>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2" t="s">
+      <c r="G112" s="2"/>
+      <c r="H112" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2" t="s">
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3" t="s">
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3" t="s">
+      <c r="G113" s="3"/>
+      <c r="H113" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3" t="s">
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3" t="s">
+      <c r="L113" s="3"/>
+      <c r="M113" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="3" t="s">
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3" t="s">
+      <c r="G114" s="3"/>
+      <c r="H114" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="7" t="s">
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7" t="s">
+      <c r="L114" s="7"/>
+      <c r="M114" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="7" t="s">
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7" t="s">
+      <c r="G115" s="7"/>
+      <c r="H115" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="3" t="s">
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3" t="s">
+      <c r="L115" s="3"/>
+      <c r="M115" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L115" s="3"/>
-      <c r="M115" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="5"/>
@@ -7528,24 +8333,22 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
+      <c r="F116" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="5"/>
@@ -7553,21 +8356,21 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="F117" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
       <c r="K117" s="3" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -7579,23 +8382,23 @@
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="3" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="L118" s="3"/>
-      <c r="M118" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
+      <c r="M118" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="5"/>
@@ -7603,17 +8406,21 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
+      <c r="F119" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -7624,17 +8431,21 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
+      <c r="F120" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
@@ -7645,17 +8456,21 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+      <c r="F121" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
       <c r="K121" s="3" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -7696,11 +8511,11 @@
         <v>120</v>
       </c>
       <c r="L123" s="3"/>
-      <c r="M123" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
+      <c r="M123" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="5"/>
@@ -7708,20 +8523,20 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L124" s="6"/>
-      <c r="M124" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="5"/>
@@ -7729,20 +8544,20 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L125" s="6"/>
-      <c r="M125" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="5"/>
@@ -7750,18 +8565,20 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="5"/>
@@ -7774,15 +8591,15 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L127" s="9"/>
-      <c r="M127" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
+      <c r="K127" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L127" s="6"/>
+      <c r="M127" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="5"/>
@@ -7795,15 +8612,15 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L128" s="9"/>
-      <c r="M128" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N128" s="10"/>
-      <c r="O128" s="10"/>
+      <c r="K128" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L128" s="6"/>
+      <c r="M128" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="5"/>
@@ -7816,15 +8633,13 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L129" s="9"/>
-      <c r="M129" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
+      <c r="K129" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="5"/>
@@ -7838,11 +8653,11 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L130" s="9"/>
       <c r="M130" s="10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
@@ -7859,11 +8674,11 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L131" s="9"/>
       <c r="M131" s="10" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
@@ -7880,11 +8695,11 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L132" s="9"/>
       <c r="M132" s="10" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
@@ -7901,199 +8716,304 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L133" s="9"/>
       <c r="M133" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
     </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" s="2" t="s">
+    <row r="134" spans="1:15">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L134" s="9"/>
+      <c r="M134" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L135" s="9"/>
+      <c r="M135" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L136" s="9"/>
+      <c r="M136" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L137" s="9"/>
+      <c r="M137" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2" t="s">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2" t="s">
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3" t="s">
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F152" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3" t="s">
+      <c r="G152" s="3"/>
+      <c r="H152" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3" t="s">
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L148" s="3"/>
-      <c r="M148" s="3" t="s">
+      <c r="L152" s="3"/>
+      <c r="M152" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="N148" s="3"/>
-      <c r="O148" s="3"/>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L151" s="7"/>
-      <c r="M151" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N151" s="3"/>
-      <c r="O151" s="3"/>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L152" s="7"/>
-      <c r="M152" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
     </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L155" s="7"/>
+      <c r="M155" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L156" s="7"/>
+      <c r="M156" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="254">
+  <mergeCells count="264">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -8249,26 +9169,21 @@
     <mergeCell ref="M95:O95"/>
     <mergeCell ref="K96:L96"/>
     <mergeCell ref="M96:O96"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:O109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:O98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="A112:D112"/>
     <mergeCell ref="F112:G112"/>
     <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="K112:O112"/>
+    <mergeCell ref="A113:D113"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:O113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:O113"/>
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="H114:J114"/>
     <mergeCell ref="K114:L114"/>
@@ -8279,8 +9194,7 @@
     <mergeCell ref="M115:O115"/>
     <mergeCell ref="F116:G116"/>
     <mergeCell ref="H116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="K116:O116"/>
     <mergeCell ref="F117:G117"/>
     <mergeCell ref="H117:J117"/>
     <mergeCell ref="K117:L117"/>
@@ -8289,10 +9203,16 @@
     <mergeCell ref="H118:J118"/>
     <mergeCell ref="K118:L118"/>
     <mergeCell ref="M118:O118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:J119"/>
     <mergeCell ref="K119:L119"/>
     <mergeCell ref="M119:O119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:J120"/>
     <mergeCell ref="K120:L120"/>
     <mergeCell ref="M120:O120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:J121"/>
     <mergeCell ref="K121:L121"/>
     <mergeCell ref="M121:O121"/>
     <mergeCell ref="K122:L122"/>
@@ -8303,13 +9223,13 @@
     <mergeCell ref="M124:O124"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="M125:O125"/>
-    <mergeCell ref="K126:O126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:O126"/>
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="M127:O127"/>
     <mergeCell ref="K128:L128"/>
     <mergeCell ref="M128:O128"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="K129:O129"/>
     <mergeCell ref="K130:L130"/>
     <mergeCell ref="M130:O130"/>
     <mergeCell ref="K131:L131"/>
@@ -8318,36 +9238,46 @@
     <mergeCell ref="M132:O132"/>
     <mergeCell ref="K133:L133"/>
     <mergeCell ref="M133:O133"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:O147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="M148:O148"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:O149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:O150"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:O135"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="M136:O136"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="M137:O137"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:O138"/>
+    <mergeCell ref="A151:D151"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="K151:O151"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:J152"/>
     <mergeCell ref="K152:L152"/>
     <mergeCell ref="M152:O152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:O153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:O154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:O156"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A32:O33"/>
     <mergeCell ref="A52:O53"/>
     <mergeCell ref="A70:O71"/>
     <mergeCell ref="P1:R2"/>
-    <mergeCell ref="A107:O108"/>
-    <mergeCell ref="P107:R108"/>
-    <mergeCell ref="A145:O146"/>
+    <mergeCell ref="A110:O111"/>
+    <mergeCell ref="P110:R111"/>
+    <mergeCell ref="A149:O150"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8358,17 +9288,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:O58"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8431,7 +9364,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8503,7 +9436,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -8557,11 +9490,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -8578,7 +9511,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -8664,7 +9597,7 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -8685,7 +9618,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -8697,7 +9630,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8760,7 +9693,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8876,11 +9809,11 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -8901,11 +9834,11 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -8917,11 +9850,11 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -8942,11 +9875,11 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -8972,11 +9905,11 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -8993,11 +9926,11 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -9014,11 +9947,11 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -9035,11 +9968,11 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -9056,7 +9989,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="8" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -9163,7 +10096,7 @@
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -9184,7 +10117,7 @@
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -9210,143 +10143,137 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+    <row r="49" spans="1:15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2" t="s">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="M62" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
@@ -9356,63 +10283,69 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L63" s="6"/>
-      <c r="M63" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="6" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L64" s="6"/>
-      <c r="M64" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="6" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="7" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
@@ -9429,11 +10362,11 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="6" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="7" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
@@ -9450,11 +10383,11 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="6" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
@@ -9471,11 +10404,11 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="6" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="7" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
@@ -9492,11 +10425,11 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
@@ -9513,11 +10446,11 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
@@ -9533,13 +10466,15 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
+      <c r="K71" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L71" s="6"/>
+      <c r="M71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="5"/>
@@ -9552,15 +10487,15 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L72" s="9"/>
-      <c r="M72" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
+      <c r="K72" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L72" s="6"/>
+      <c r="M72" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="5"/>
@@ -9573,15 +10508,13 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L73" s="9"/>
-      <c r="M73" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
+      <c r="K73" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="5"/>
@@ -9595,11 +10528,11 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -9616,11 +10549,11 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -9637,11 +10570,11 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="10" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -9658,11 +10591,11 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="10" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -9679,17 +10612,654 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="10" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
     </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L79" s="9"/>
+      <c r="M79" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L81" s="9"/>
+      <c r="M81" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L99" s="6"/>
+      <c r="M99" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L100" s="6"/>
+      <c r="M100" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L101" s="6"/>
+      <c r="M101" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L102" s="6"/>
+      <c r="M102" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103" s="6"/>
+      <c r="M103" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L104" s="6"/>
+      <c r="M104" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L105" s="6"/>
+      <c r="M105" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L106" s="6"/>
+      <c r="M106" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L108" s="9"/>
+      <c r="M108" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L109" s="9"/>
+      <c r="M109" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110" s="9"/>
+      <c r="M110" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L111" s="9"/>
+      <c r="M111" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L112" s="9"/>
+      <c r="M112" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L113" s="9"/>
+      <c r="M113" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L114" s="9"/>
+      <c r="M114" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L115" s="9"/>
+      <c r="M115" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="258">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -9804,28 +11374,28 @@
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="K48:L48"/>
     <mergeCell ref="M48:O48"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:O59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="A61:D61"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:O62"/>
     <mergeCell ref="F63:G63"/>
     <mergeCell ref="H63:J63"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="M63:O63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:J65"/>
     <mergeCell ref="K65:L65"/>
     <mergeCell ref="M65:O65"/>
     <mergeCell ref="K66:L66"/>
@@ -9838,11 +11408,11 @@
     <mergeCell ref="M69:O69"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="M70:O70"/>
-    <mergeCell ref="K71:O71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:O71"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="M72:O72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="K73:O73"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="M74:O74"/>
     <mergeCell ref="K75:L75"/>
@@ -9853,9 +11423,101 @@
     <mergeCell ref="M77:O77"/>
     <mergeCell ref="K78:L78"/>
     <mergeCell ref="M78:O78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:O80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="M82:O82"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:O94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:O96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="K98:O98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:O107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M115:O115"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:O116"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A26:O27"/>
-    <mergeCell ref="A57:O58"/>
+    <mergeCell ref="A59:O60"/>
+    <mergeCell ref="A92:O93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26385" windowHeight="9045" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>获取销售点列表</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>/s/listRepertoryChecker.action</t>
+  </si>
+  <si>
+    <t>获取库存审批详情</t>
+  </si>
+  <si>
+    <t>/s/getRepertoryApply.action</t>
   </si>
   <si>
     <t>新建进仓单</t>
@@ -507,9 +513,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -551,76 +557,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,17 +579,63 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,16 +647,39 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,7 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +754,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,13 +814,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,19 +850,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,91 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,17 +900,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,50 +944,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,6 +971,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -999,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,88 +1020,88 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1104,10 +1110,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,32 +1122,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,9 +1207,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1862,11 +1865,11 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1"/>
@@ -1884,9 +1887,9 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
@@ -1914,9 +1917,9 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="3" t="s">
@@ -1946,9 +1949,9 @@
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="4"/>
@@ -1974,9 +1977,9 @@
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="4"/>
@@ -2002,9 +2005,9 @@
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="4"/>
@@ -2030,9 +2033,9 @@
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="4"/>
@@ -2058,9 +2061,9 @@
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="4"/>
@@ -2084,9 +2087,9 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="4"/>
@@ -2103,18 +2106,18 @@
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21" t="s">
+      <c r="L35" s="20"/>
+      <c r="M35" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="4"/>
@@ -2136,9 +2139,9 @@
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="4"/>
@@ -2160,9 +2163,9 @@
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="4"/>
@@ -2184,9 +2187,9 @@
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="4"/>
@@ -2208,9 +2211,9 @@
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="4"/>
@@ -2232,9 +2235,9 @@
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="4"/>
@@ -2247,16 +2250,16 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="22" t="s">
+      <c r="K41" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="22"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="4"/>
@@ -2273,14 +2276,14 @@
         <v>53</v>
       </c>
       <c r="L42" s="3"/>
-      <c r="M42" s="22" t="s">
+      <c r="M42" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N42" s="22"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="4"/>
@@ -2302,9 +2305,9 @@
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="4"/>
@@ -2326,9 +2329,9 @@
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
@@ -2556,15 +2559,15 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="21" t="s">
+      <c r="K68" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21" t="s">
+      <c r="L68" s="20"/>
+      <c r="M68" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="4"/>
@@ -2682,10 +2685,10 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="22" t="s">
+      <c r="K74" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L74" s="22"/>
+      <c r="L74" s="21"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -2705,10 +2708,10 @@
         <v>53</v>
       </c>
       <c r="L75" s="3"/>
-      <c r="M75" s="22" t="s">
+      <c r="M75" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N75" s="22"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
@@ -2979,15 +2982,15 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="21" t="s">
+      <c r="K100" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21" t="s">
+      <c r="L100" s="20"/>
+      <c r="M100" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="4"/>
@@ -3105,10 +3108,10 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="22" t="s">
+      <c r="K106" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L106" s="22"/>
+      <c r="L106" s="21"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -3128,10 +3131,10 @@
         <v>53</v>
       </c>
       <c r="L107" s="3"/>
-      <c r="M107" s="22" t="s">
+      <c r="M107" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N107" s="22"/>
+      <c r="N107" s="21"/>
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15">
@@ -3406,15 +3409,15 @@
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="21" t="s">
+      <c r="K129" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L129" s="21"/>
-      <c r="M129" s="21" t="s">
+      <c r="L129" s="20"/>
+      <c r="M129" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="N129" s="21"/>
-      <c r="O129" s="21"/>
+      <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="4"/>
@@ -3532,10 +3535,10 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="22" t="s">
+      <c r="K135" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L135" s="22"/>
+      <c r="L135" s="21"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -3555,10 +3558,10 @@
         <v>53</v>
       </c>
       <c r="L136" s="3"/>
-      <c r="M136" s="22" t="s">
+      <c r="M136" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N136" s="22"/>
+      <c r="N136" s="21"/>
       <c r="O136" s="3"/>
     </row>
     <row r="137" spans="1:15">
@@ -4020,7 +4023,7 @@
   <sheetPr/>
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
@@ -6651,10 +6654,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9012,8 +9015,633 @@
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
     </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L177" s="3"/>
+      <c r="M177" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L185" s="3"/>
+      <c r="M185" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L186" s="6"/>
+      <c r="M186" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L187" s="6"/>
+      <c r="M187" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="8"/>
+      <c r="O188" s="8"/>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L189" s="9"/>
+      <c r="M189" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N189" s="10"/>
+      <c r="O189" s="10"/>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L190" s="9"/>
+      <c r="M190" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N190" s="10"/>
+      <c r="O190" s="10"/>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L191" s="9"/>
+      <c r="M191" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N191" s="10"/>
+      <c r="O191" s="10"/>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L192" s="9"/>
+      <c r="M192" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N192" s="10"/>
+      <c r="O192" s="10"/>
+    </row>
+    <row r="193" spans="1:15">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L193" s="9"/>
+      <c r="M193" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N193" s="10"/>
+      <c r="O193" s="10"/>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L194" s="9"/>
+      <c r="M194" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N194" s="10"/>
+      <c r="O194" s="10"/>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L195" s="9"/>
+      <c r="M195" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N195" s="10"/>
+      <c r="O195" s="10"/>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L196" s="9"/>
+      <c r="M196" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N197" s="10"/>
+      <c r="O197" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="264">
+  <mergeCells count="338">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -9270,6 +9898,79 @@
     <mergeCell ref="M155:O155"/>
     <mergeCell ref="K156:L156"/>
     <mergeCell ref="M156:O156"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="H171:J171"/>
+    <mergeCell ref="K171:O171"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:O172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M173:O173"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="M174:O174"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:J175"/>
+    <mergeCell ref="K175:O175"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="H176:J176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:O176"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="M177:O177"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="H178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:O178"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="M179:O179"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="H180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:O180"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="M181:O181"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:O182"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:O183"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:O184"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:O185"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:O186"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:O187"/>
+    <mergeCell ref="K188:O188"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:O189"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:O190"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="M191:O191"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="M194:O194"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:O195"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:O196"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:O197"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A32:O33"/>
     <mergeCell ref="A52:O53"/>
@@ -9278,6 +9979,7 @@
     <mergeCell ref="A110:O111"/>
     <mergeCell ref="P110:R111"/>
     <mergeCell ref="A149:O150"/>
+    <mergeCell ref="A169:O170"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9301,7 +10003,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9364,7 +10066,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -9436,7 +10138,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -9618,7 +10320,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -9630,7 +10332,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -9693,7 +10395,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9813,7 +10515,7 @@
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -9838,7 +10540,7 @@
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -9989,7 +10691,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -10187,7 +10889,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -10250,7 +10952,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -10318,7 +11020,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -10336,7 +11038,7 @@
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -10345,7 +11047,7 @@
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
@@ -10366,7 +11068,7 @@
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
@@ -10509,7 +11211,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -10707,7 +11409,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -10770,7 +11472,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -10890,7 +11592,7 @@
       </c>
       <c r="L99" s="6"/>
       <c r="M99" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
@@ -10915,7 +11617,7 @@
       </c>
       <c r="L100" s="6"/>
       <c r="M100" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
@@ -11062,7 +11764,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="10275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>获取销售点列表</t>
   </si>
@@ -464,6 +464,18 @@
   </si>
   <si>
     <t>/s/getRepertoryApply.action</t>
+  </si>
+  <si>
+    <t>获取库存审批列表</t>
+  </si>
+  <si>
+    <t>/s/listRepertoryApply.action</t>
+  </si>
+  <si>
+    <t>获取当前销售点库存申请列表</t>
+  </si>
+  <si>
+    <t>/s/listCurrentRepertoryApply.action</t>
   </si>
   <si>
     <t>新建进仓单</t>
@@ -513,10 +525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -555,9 +567,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,68 +659,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,6 +671,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,21 +692,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,7 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,19 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +814,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,79 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,6 +909,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -933,32 +975,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,17 +1009,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1005,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,91 +1029,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,25 +1137,25 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O2"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="M155" sqref="M155:O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4023,8 +4035,8 @@
   <sheetPr/>
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6654,10 +6666,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R197"/>
+  <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="I279" sqref="I279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9147,15 +9159,13 @@
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="K174" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N174" s="3"/>
-      <c r="O174" s="3"/>
+      <c r="K174" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="5"/>
@@ -9172,13 +9182,15 @@
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L175" s="7"/>
-      <c r="M175" s="7"/>
-      <c r="N175" s="7"/>
-      <c r="O175" s="7"/>
+      <c r="K175" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="5"/>
@@ -9192,14 +9204,14 @@
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L176" s="3"/>
-      <c r="M176" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N176" s="3"/>
-      <c r="O176" s="3"/>
+      <c r="M176" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="5"/>
@@ -9213,14 +9225,14 @@
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L177" s="3"/>
-      <c r="M177" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N177" s="7"/>
-      <c r="O177" s="7"/>
+      <c r="M177" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="5"/>
@@ -9234,11 +9246,11 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="L178" s="3"/>
       <c r="M178" s="3" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
@@ -9255,11 +9267,11 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L179" s="3"/>
       <c r="M179" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
@@ -9276,11 +9288,11 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="L180" s="3"/>
       <c r="M180" s="3" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
@@ -9297,11 +9309,11 @@
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L181" s="3"/>
       <c r="M181" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
@@ -9318,11 +9330,11 @@
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L182" s="3"/>
       <c r="M182" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
@@ -9339,11 +9351,11 @@
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L183" s="3"/>
       <c r="M183" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
@@ -9360,14 +9372,14 @@
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L184" s="3"/>
-      <c r="M184" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
+      <c r="M184" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="5"/>
@@ -9380,12 +9392,12 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="K185" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L185" s="3"/>
+      <c r="K185" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L185" s="6"/>
       <c r="M185" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="N185" s="7"/>
       <c r="O185" s="7"/>
@@ -9402,11 +9414,11 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="6" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="L186" s="6"/>
       <c r="M186" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N186" s="7"/>
       <c r="O186" s="7"/>
@@ -9422,15 +9434,13 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L187" s="6"/>
-      <c r="M187" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
+      <c r="K187" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
+      <c r="N187" s="8"/>
+      <c r="O187" s="8"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="5"/>
@@ -9443,13 +9453,15 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L188" s="8"/>
-      <c r="M188" s="8"/>
-      <c r="N188" s="8"/>
-      <c r="O188" s="8"/>
+      <c r="K188" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L188" s="9"/>
+      <c r="M188" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N188" s="10"/>
+      <c r="O188" s="10"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="5"/>
@@ -9463,11 +9475,11 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L189" s="9"/>
       <c r="M189" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
@@ -9484,11 +9496,11 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L190" s="9"/>
       <c r="M190" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
@@ -9505,11 +9517,11 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L191" s="9"/>
       <c r="M191" s="10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
@@ -9526,11 +9538,11 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L192" s="9"/>
       <c r="M192" s="10" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
@@ -9547,11 +9559,11 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L193" s="9"/>
       <c r="M193" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
@@ -9568,11 +9580,11 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L194" s="9"/>
       <c r="M194" s="10" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
@@ -9589,11 +9601,11 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="9" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="L195" s="9"/>
       <c r="M195" s="10" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
@@ -9609,39 +9621,1262 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L196" s="9"/>
+      <c r="K196" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L196" s="10"/>
       <c r="M196" s="10" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
     </row>
-    <row r="197" spans="1:15">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="10" t="s">
+    <row r="214" spans="1:15">
+      <c r="A214" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L218" s="7"/>
+      <c r="M218" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N218" s="7"/>
+      <c r="O218" s="7"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I219" s="7"/>
+      <c r="J219" s="7"/>
+      <c r="K219" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L219" s="7"/>
+      <c r="M219" s="7"/>
+      <c r="N219" s="7"/>
+      <c r="O219" s="7"/>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
+      <c r="K220" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L221" s="3"/>
+      <c r="M221" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N221" s="7"/>
+      <c r="O221" s="7"/>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="7"/>
+      <c r="J226" s="7"/>
+      <c r="K226" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="7"/>
+      <c r="J227" s="7"/>
+      <c r="K227" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
+      <c r="K229" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L229" s="3"/>
+      <c r="M229" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N229" s="7"/>
+      <c r="O229" s="7"/>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
+      <c r="J230" s="7"/>
+      <c r="K230" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L230" s="6"/>
+      <c r="M230" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N230" s="7"/>
+      <c r="O230" s="7"/>
+    </row>
+    <row r="231" spans="1:15">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L231" s="6"/>
+      <c r="M231" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N231" s="7"/>
+      <c r="O231" s="7"/>
+    </row>
+    <row r="232" spans="1:15">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L232" s="8"/>
+      <c r="M232" s="8"/>
+      <c r="N232" s="8"/>
+      <c r="O232" s="8"/>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L233" s="9"/>
+      <c r="M233" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L234" s="9"/>
+      <c r="M234" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N234" s="10"/>
+      <c r="O234" s="10"/>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L235" s="9"/>
+      <c r="M235" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N235" s="10"/>
+      <c r="O235" s="10"/>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L236" s="9"/>
+      <c r="M236" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
+    </row>
+    <row r="237" spans="1:15">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L237" s="9"/>
+      <c r="M237" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N237" s="10"/>
+      <c r="O237" s="10"/>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L238" s="9"/>
+      <c r="M238" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N238" s="10"/>
+      <c r="O238" s="10"/>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L239" s="9"/>
+      <c r="M239" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+    </row>
+    <row r="240" spans="1:15">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L240" s="9"/>
+      <c r="M240" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L197" s="10"/>
-      <c r="M197" s="10" t="s">
+      <c r="L241" s="10"/>
+      <c r="M241" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N197" s="10"/>
-      <c r="O197" s="10"/>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+    </row>
+    <row r="256" spans="1:15">
+      <c r="A256" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+    </row>
+    <row r="257" spans="1:15">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+    </row>
+    <row r="258" spans="1:15">
+      <c r="A258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="2"/>
+      <c r="H258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L258" s="2"/>
+      <c r="M258" s="2"/>
+      <c r="N258" s="2"/>
+      <c r="O258" s="2"/>
+    </row>
+    <row r="259" spans="1:15">
+      <c r="A259" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+    </row>
+    <row r="260" spans="1:15">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L260" s="7"/>
+      <c r="M260" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N260" s="7"/>
+      <c r="O260" s="7"/>
+    </row>
+    <row r="261" spans="1:15">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G261" s="7"/>
+      <c r="H261" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I261" s="7"/>
+      <c r="J261" s="7"/>
+      <c r="K261" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L261" s="7"/>
+      <c r="M261" s="7"/>
+      <c r="N261" s="7"/>
+      <c r="O261" s="7"/>
+    </row>
+    <row r="262" spans="1:15">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G262" s="7"/>
+      <c r="H262" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I262" s="7"/>
+      <c r="J262" s="7"/>
+      <c r="K262" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+    </row>
+    <row r="263" spans="1:15">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G263" s="7"/>
+      <c r="H263" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I263" s="7"/>
+      <c r="J263" s="7"/>
+      <c r="K263" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L263" s="3"/>
+      <c r="M263" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N263" s="7"/>
+      <c r="O263" s="7"/>
+    </row>
+    <row r="264" spans="1:15">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
+    </row>
+    <row r="265" spans="1:15">
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+    </row>
+    <row r="266" spans="1:15">
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+    </row>
+    <row r="267" spans="1:15">
+      <c r="A267" s="5"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="7"/>
+      <c r="H267" s="7"/>
+      <c r="I267" s="7"/>
+      <c r="J267" s="7"/>
+      <c r="K267" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
+    </row>
+    <row r="268" spans="1:15">
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="7"/>
+      <c r="H268" s="7"/>
+      <c r="I268" s="7"/>
+      <c r="J268" s="7"/>
+      <c r="K268" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N268" s="3"/>
+      <c r="O268" s="3"/>
+    </row>
+    <row r="269" spans="1:15">
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="7"/>
+      <c r="H269" s="7"/>
+      <c r="I269" s="7"/>
+      <c r="J269" s="7"/>
+      <c r="K269" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+    </row>
+    <row r="270" spans="1:15">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="7"/>
+      <c r="H270" s="7"/>
+      <c r="I270" s="7"/>
+      <c r="J270" s="7"/>
+      <c r="K270" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N270" s="3"/>
+      <c r="O270" s="3"/>
+    </row>
+    <row r="271" spans="1:15">
+      <c r="A271" s="5"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="7"/>
+      <c r="H271" s="7"/>
+      <c r="I271" s="7"/>
+      <c r="J271" s="7"/>
+      <c r="K271" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L271" s="3"/>
+      <c r="M271" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N271" s="7"/>
+      <c r="O271" s="7"/>
+    </row>
+    <row r="272" spans="1:15">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
+      <c r="H272" s="7"/>
+      <c r="I272" s="7"/>
+      <c r="J272" s="7"/>
+      <c r="K272" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L272" s="6"/>
+      <c r="M272" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N272" s="7"/>
+      <c r="O272" s="7"/>
+    </row>
+    <row r="273" spans="1:15">
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L273" s="6"/>
+      <c r="M273" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N273" s="7"/>
+      <c r="O273" s="7"/>
+    </row>
+    <row r="274" spans="1:15">
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L274" s="8"/>
+      <c r="M274" s="8"/>
+      <c r="N274" s="8"/>
+      <c r="O274" s="8"/>
+    </row>
+    <row r="275" spans="1:15">
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L275" s="9"/>
+      <c r="M275" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N275" s="10"/>
+      <c r="O275" s="10"/>
+    </row>
+    <row r="276" spans="1:15">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L276" s="9"/>
+      <c r="M276" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N276" s="10"/>
+      <c r="O276" s="10"/>
+    </row>
+    <row r="277" spans="1:15">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L277" s="9"/>
+      <c r="M277" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N277" s="10"/>
+      <c r="O277" s="10"/>
+    </row>
+    <row r="278" spans="1:15">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L278" s="9"/>
+      <c r="M278" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N278" s="10"/>
+      <c r="O278" s="10"/>
+    </row>
+    <row r="279" spans="1:15">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L279" s="9"/>
+      <c r="M279" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="N279" s="10"/>
+      <c r="O279" s="10"/>
+    </row>
+    <row r="280" spans="1:15">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L280" s="9"/>
+      <c r="M280" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N280" s="10"/>
+      <c r="O280" s="10"/>
+    </row>
+    <row r="281" spans="1:15">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L281" s="9"/>
+      <c r="M281" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N281" s="10"/>
+      <c r="O281" s="10"/>
+    </row>
+    <row r="282" spans="1:15">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L282" s="9"/>
+      <c r="M282" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N282" s="10"/>
+      <c r="O282" s="10"/>
+    </row>
+    <row r="283" spans="1:15">
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L283" s="10"/>
+      <c r="M283" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N283" s="10"/>
+      <c r="O283" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="338">
+  <mergeCells count="478">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -9913,11 +11148,11 @@
     <mergeCell ref="M173:O173"/>
     <mergeCell ref="F174:G174"/>
     <mergeCell ref="H174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:O174"/>
+    <mergeCell ref="K174:O174"/>
     <mergeCell ref="F175:G175"/>
     <mergeCell ref="H175:J175"/>
-    <mergeCell ref="K175:O175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:O175"/>
     <mergeCell ref="F176:G176"/>
     <mergeCell ref="H176:J176"/>
     <mergeCell ref="K176:L176"/>
@@ -9950,9 +11185,9 @@
     <mergeCell ref="M185:O185"/>
     <mergeCell ref="K186:L186"/>
     <mergeCell ref="M186:O186"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:O187"/>
-    <mergeCell ref="K188:O188"/>
+    <mergeCell ref="K187:O187"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:O188"/>
     <mergeCell ref="K189:L189"/>
     <mergeCell ref="M189:O189"/>
     <mergeCell ref="K190:L190"/>
@@ -9969,8 +11204,146 @@
     <mergeCell ref="M195:O195"/>
     <mergeCell ref="K196:L196"/>
     <mergeCell ref="M196:O196"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:O197"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="H216:J216"/>
+    <mergeCell ref="K216:O216"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="H217:J217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="M217:O217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="H218:J218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="M218:O218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="H219:J219"/>
+    <mergeCell ref="K219:O219"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="H220:J220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="M220:O220"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="H221:J221"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="M221:O221"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="H222:J222"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="M222:O222"/>
+    <mergeCell ref="F223:G223"/>
+    <mergeCell ref="H223:J223"/>
+    <mergeCell ref="K223:L223"/>
+    <mergeCell ref="M223:O223"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="H224:J224"/>
+    <mergeCell ref="K224:L224"/>
+    <mergeCell ref="M224:O224"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="H225:J225"/>
+    <mergeCell ref="K225:L225"/>
+    <mergeCell ref="M225:O225"/>
+    <mergeCell ref="K226:L226"/>
+    <mergeCell ref="M226:O226"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="M227:O227"/>
+    <mergeCell ref="K228:L228"/>
+    <mergeCell ref="M228:O228"/>
+    <mergeCell ref="K229:L229"/>
+    <mergeCell ref="M229:O229"/>
+    <mergeCell ref="K230:L230"/>
+    <mergeCell ref="M230:O230"/>
+    <mergeCell ref="K231:L231"/>
+    <mergeCell ref="M231:O231"/>
+    <mergeCell ref="K232:O232"/>
+    <mergeCell ref="K233:L233"/>
+    <mergeCell ref="M233:O233"/>
+    <mergeCell ref="K234:L234"/>
+    <mergeCell ref="M234:O234"/>
+    <mergeCell ref="K235:L235"/>
+    <mergeCell ref="M235:O235"/>
+    <mergeCell ref="K236:L236"/>
+    <mergeCell ref="M236:O236"/>
+    <mergeCell ref="K237:L237"/>
+    <mergeCell ref="M237:O237"/>
+    <mergeCell ref="K238:L238"/>
+    <mergeCell ref="M238:O238"/>
+    <mergeCell ref="K239:L239"/>
+    <mergeCell ref="M239:O239"/>
+    <mergeCell ref="K240:L240"/>
+    <mergeCell ref="M240:O240"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="M241:O241"/>
+    <mergeCell ref="A258:D258"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="H258:J258"/>
+    <mergeCell ref="K258:O258"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="H259:J259"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="M259:O259"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="H260:J260"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="M260:O260"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="H261:J261"/>
+    <mergeCell ref="K261:O261"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="H262:J262"/>
+    <mergeCell ref="K262:L262"/>
+    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="F263:G263"/>
+    <mergeCell ref="H263:J263"/>
+    <mergeCell ref="K263:L263"/>
+    <mergeCell ref="M263:O263"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="H264:J264"/>
+    <mergeCell ref="K264:L264"/>
+    <mergeCell ref="M264:O264"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:J265"/>
+    <mergeCell ref="K265:L265"/>
+    <mergeCell ref="M265:O265"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:J266"/>
+    <mergeCell ref="K266:L266"/>
+    <mergeCell ref="M266:O266"/>
+    <mergeCell ref="K267:L267"/>
+    <mergeCell ref="M267:O267"/>
+    <mergeCell ref="K268:L268"/>
+    <mergeCell ref="M268:O268"/>
+    <mergeCell ref="K269:L269"/>
+    <mergeCell ref="M269:O269"/>
+    <mergeCell ref="K270:L270"/>
+    <mergeCell ref="M270:O270"/>
+    <mergeCell ref="K271:L271"/>
+    <mergeCell ref="M271:O271"/>
+    <mergeCell ref="K272:L272"/>
+    <mergeCell ref="M272:O272"/>
+    <mergeCell ref="K273:L273"/>
+    <mergeCell ref="M273:O273"/>
+    <mergeCell ref="K274:O274"/>
+    <mergeCell ref="K275:L275"/>
+    <mergeCell ref="M275:O275"/>
+    <mergeCell ref="K276:L276"/>
+    <mergeCell ref="M276:O276"/>
+    <mergeCell ref="K277:L277"/>
+    <mergeCell ref="M277:O277"/>
+    <mergeCell ref="K278:L278"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="K279:L279"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="K280:L280"/>
+    <mergeCell ref="M280:O280"/>
+    <mergeCell ref="K281:L281"/>
+    <mergeCell ref="M281:O281"/>
+    <mergeCell ref="K282:L282"/>
+    <mergeCell ref="M282:O282"/>
+    <mergeCell ref="K283:L283"/>
+    <mergeCell ref="M283:O283"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A32:O33"/>
     <mergeCell ref="A52:O53"/>
@@ -9980,6 +11353,8 @@
     <mergeCell ref="P110:R111"/>
     <mergeCell ref="A149:O150"/>
     <mergeCell ref="A169:O170"/>
+    <mergeCell ref="A214:O215"/>
+    <mergeCell ref="A256:O257"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9992,8 +11367,8 @@
   <sheetPr/>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:O93"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10003,7 +11378,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10066,7 +11441,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -10138,7 +11513,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -10320,7 +11695,7 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -10332,7 +11707,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -10395,7 +11770,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10515,7 +11890,7 @@
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -10540,7 +11915,7 @@
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -10691,7 +12066,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -10889,7 +12264,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -10952,7 +12327,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11020,7 +12395,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -11038,7 +12413,7 @@
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -11047,7 +12422,7 @@
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
@@ -11068,7 +12443,7 @@
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
@@ -11211,7 +12586,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -11409,7 +12784,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -11472,7 +12847,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -11592,7 +12967,7 @@
       </c>
       <c r="L99" s="6"/>
       <c r="M99" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
@@ -11617,7 +12992,7 @@
       </c>
       <c r="L100" s="6"/>
       <c r="M100" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
@@ -11764,7 +13139,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="10275" activeTab="2"/>
+    <workbookView windowWidth="18855" windowHeight="9705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -525,10 +525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -567,9 +567,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,13 +584,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,8 +597,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,14 +650,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -643,10 +658,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,38 +684,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,25 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,25 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,19 +838,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,31 +880,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +912,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -928,6 +939,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -938,6 +964,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,52 +1004,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,16 +1029,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,73 +1047,73 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,22 +1134,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1576,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="M155" sqref="M155:O155"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:O153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4035,8 +4035,8 @@
   <sheetPr/>
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107:L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6668,8 +6668,8 @@
   <sheetPr/>
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="I279" sqref="I279"/>
+    <sheetView topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="L334" sqref="L334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11367,8 +11367,8 @@
   <sheetPr/>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72:O72"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="21435" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -570,9 +570,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,22 +648,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,29 +656,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,10 +671,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,34 +686,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,6 +751,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -763,61 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,19 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,37 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,11 +915,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,17 +945,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,26 +983,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,9 +1004,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,10 +1032,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,7 +1044,7 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,10 +1053,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,58 +1068,55 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,10 +1125,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,28 +1137,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1579,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41:O41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4038,8 +4038,8 @@
   <sheetPr/>
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:O99"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6669,10 +6669,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R282"/>
+  <dimension ref="A1:R284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D55"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267:J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9808,20 +9808,22 @@
       </c>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
-      <c r="K218" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L218" s="6"/>
-      <c r="M218" s="6"/>
-      <c r="N218" s="6"/>
-      <c r="O218" s="6"/>
+      <c r="K218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
       <c r="F219" s="6" t="s">
         <v>19</v>
       </c>
@@ -9831,15 +9833,13 @@
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
-      <c r="K219" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
+      <c r="K219" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="7"/>
@@ -9857,14 +9857,14 @@
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L220" s="3"/>
-      <c r="M220" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="N220" s="6"/>
-      <c r="O220" s="6"/>
+      <c r="M220" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="7"/>
@@ -9882,14 +9882,14 @@
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L221" s="3"/>
-      <c r="M221" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
+      <c r="M221" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="7"/>
@@ -9907,11 +9907,11 @@
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="L222" s="3"/>
       <c r="M222" s="3" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
@@ -9932,11 +9932,11 @@
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L223" s="3"/>
       <c r="M223" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
@@ -9957,11 +9957,11 @@
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="L224" s="3"/>
       <c r="M224" s="3" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="N224" s="3"/>
       <c r="O224" s="3"/>
@@ -9972,17 +9972,17 @@
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
-      <c r="F225" s="6"/>
-      <c r="G225" s="6"/>
-      <c r="H225" s="6"/>
-      <c r="I225" s="6"/>
-      <c r="J225" s="6"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
       <c r="K225" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L225" s="3"/>
       <c r="M225" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N225" s="3"/>
       <c r="O225" s="3"/>
@@ -9999,11 +9999,11 @@
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
       <c r="K226" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L226" s="3"/>
       <c r="M226" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
@@ -10020,11 +10020,11 @@
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
       <c r="K227" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L227" s="3"/>
       <c r="M227" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
@@ -10041,14 +10041,14 @@
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
       <c r="K228" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L228" s="3"/>
-      <c r="M228" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N228" s="6"/>
-      <c r="O228" s="6"/>
+      <c r="M228" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="7"/>
@@ -10061,12 +10061,12 @@
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
-      <c r="K229" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L229" s="5"/>
+      <c r="K229" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L229" s="3"/>
       <c r="M229" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N229" s="6"/>
       <c r="O229" s="6"/>
@@ -10077,17 +10077,17 @@
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
       <c r="K230" s="5" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="L230" s="5"/>
       <c r="M230" s="6" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="N230" s="6"/>
       <c r="O230" s="6"/>
@@ -10103,13 +10103,15 @@
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
-      <c r="K231" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L231" s="8"/>
-      <c r="M231" s="8"/>
-      <c r="N231" s="8"/>
-      <c r="O231" s="8"/>
+      <c r="K231" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L231" s="5"/>
+      <c r="M231" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="7"/>
@@ -10122,15 +10124,13 @@
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
-      <c r="K232" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L232" s="9"/>
-      <c r="M232" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N232" s="10"/>
-      <c r="O232" s="10"/>
+      <c r="K232" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L232" s="8"/>
+      <c r="M232" s="8"/>
+      <c r="N232" s="8"/>
+      <c r="O232" s="8"/>
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="7"/>
@@ -10144,11 +10144,11 @@
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
       <c r="K233" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L233" s="9"/>
       <c r="M233" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N233" s="10"/>
       <c r="O233" s="10"/>
@@ -10165,11 +10165,11 @@
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
       <c r="K234" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L234" s="9"/>
       <c r="M234" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
@@ -10186,11 +10186,11 @@
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
       <c r="K235" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L235" s="9"/>
       <c r="M235" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N235" s="10"/>
       <c r="O235" s="10"/>
@@ -10207,11 +10207,11 @@
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L236" s="9"/>
       <c r="M236" s="10" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="N236" s="10"/>
       <c r="O236" s="10"/>
@@ -10228,11 +10228,11 @@
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
       <c r="K237" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L237" s="9"/>
       <c r="M237" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
@@ -10249,11 +10249,11 @@
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
       <c r="K238" s="9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L238" s="9"/>
       <c r="M238" s="10" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
@@ -10270,11 +10270,11 @@
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
       <c r="K239" s="9" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="L239" s="9"/>
       <c r="M239" s="10" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="N239" s="10"/>
       <c r="O239" s="10"/>
@@ -10290,37 +10290,41 @@
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
-      <c r="K240" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L240" s="10"/>
+      <c r="K240" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L240" s="9"/>
       <c r="M240" s="10" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
     </row>
-    <row r="255" spans="1:15">
-      <c r="A255" s="1" t="s">
+    <row r="241" spans="1:15">
+      <c r="A241" s="7"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="7"/>
+      <c r="J241" s="7"/>
+      <c r="K241" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L241" s="10"/>
+      <c r="M241" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+    </row>
+    <row r="256" spans="1:15">
+      <c r="A256" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
-      <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
-    </row>
-    <row r="256" spans="1:15">
-      <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -10337,85 +10341,77 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="2" t="s">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+    </row>
+    <row r="258" spans="1:15">
+      <c r="A258" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2" t="s">
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F257" s="2" t="s">
+      <c r="F258" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2" t="s">
+      <c r="G258" s="2"/>
+      <c r="H258" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2" t="s">
+      <c r="I258" s="2"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
-    </row>
-    <row r="258" spans="1:15">
-      <c r="A258" s="3" t="s">
+      <c r="L258" s="2"/>
+      <c r="M258" s="2"/>
+      <c r="N258" s="2"/>
+      <c r="O258" s="2"/>
+    </row>
+    <row r="259" spans="1:15">
+      <c r="A259" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3" t="s">
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F258" s="3" t="s">
+      <c r="F259" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G258" s="3"/>
-      <c r="H258" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L258" s="3"/>
-      <c r="M258" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N258" s="3"/>
-      <c r="O258" s="3"/>
-    </row>
-    <row r="259" spans="1:15">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
-      <c r="F259" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G259" s="3"/>
       <c r="H259" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
-      <c r="K259" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L259" s="6"/>
-      <c r="M259" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N259" s="6"/>
-      <c r="O259" s="6"/>
+      <c r="K259" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="4"/>
@@ -10423,70 +10419,70 @@
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
-      <c r="F260" s="6" t="s">
+      <c r="F260" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G260" s="6"/>
-      <c r="H260" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I260" s="6"/>
-      <c r="J260" s="6"/>
-      <c r="K260" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="L260" s="6"/>
-      <c r="M260" s="6"/>
+      <c r="M260" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="N260" s="6"/>
       <c r="O260" s="6"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="7"/>
-      <c r="B261" s="7"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="7"/>
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
       <c r="F261" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G261" s="6"/>
       <c r="H261" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
       <c r="K261" s="3" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="L261" s="3"/>
       <c r="M261" s="3" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
     </row>
     <row r="262" spans="1:15">
-      <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="7"/>
-      <c r="E262" s="7"/>
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
       <c r="F262" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G262" s="6"/>
       <c r="H262" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
-      <c r="K262" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L262" s="3"/>
-      <c r="M262" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="K262" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L262" s="6"/>
+      <c r="M262" s="6"/>
       <c r="N262" s="6"/>
       <c r="O262" s="6"/>
     </row>
@@ -10496,21 +10492,21 @@
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
-      <c r="F263" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G263" s="3"/>
-      <c r="H263" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
+      <c r="F263" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
       <c r="K263" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L263" s="3"/>
       <c r="M263" s="3" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
@@ -10522,23 +10518,23 @@
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
       <c r="F264" s="3" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="G264" s="3"/>
       <c r="H264" s="3" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="L264" s="3"/>
-      <c r="M264" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N264" s="3"/>
-      <c r="O264" s="3"/>
+      <c r="M264" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="7"/>
@@ -10547,20 +10543,20 @@
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
       <c r="F265" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G265" s="3"/>
       <c r="H265" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="L265" s="3"/>
       <c r="M265" s="3" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
@@ -10571,17 +10567,21 @@
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="6"/>
-      <c r="H266" s="6"/>
-      <c r="I266" s="6"/>
-      <c r="J266" s="6"/>
+      <c r="F266" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
       <c r="K266" s="3" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="L266" s="3"/>
       <c r="M266" s="3" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
@@ -10592,17 +10592,17 @@
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
-      <c r="F267" s="6"/>
-      <c r="G267" s="6"/>
-      <c r="H267" s="6"/>
-      <c r="I267" s="6"/>
-      <c r="J267" s="6"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
       <c r="K267" s="3" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="L267" s="3"/>
       <c r="M267" s="3" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
@@ -10619,11 +10619,11 @@
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
       <c r="K268" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L268" s="3"/>
       <c r="M268" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>
@@ -10640,11 +10640,11 @@
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
       <c r="K269" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L269" s="3"/>
       <c r="M269" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>
@@ -10661,14 +10661,14 @@
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
       <c r="K270" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L270" s="3"/>
-      <c r="M270" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N270" s="6"/>
-      <c r="O270" s="6"/>
+      <c r="M270" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N270" s="3"/>
+      <c r="O270" s="3"/>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="7"/>
@@ -10681,15 +10681,15 @@
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
-      <c r="K271" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L271" s="5"/>
-      <c r="M271" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N271" s="6"/>
-      <c r="O271" s="6"/>
+      <c r="K271" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N271" s="3"/>
+      <c r="O271" s="3"/>
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="7"/>
@@ -10697,17 +10697,17 @@
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7"/>
-      <c r="I272" s="7"/>
-      <c r="J272" s="7"/>
-      <c r="K272" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L272" s="5"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+      <c r="K272" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L272" s="3"/>
       <c r="M272" s="6" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="N272" s="6"/>
       <c r="O272" s="6"/>
@@ -10718,18 +10718,20 @@
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7"/>
-      <c r="I273" s="7"/>
-      <c r="J273" s="7"/>
-      <c r="K273" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L273" s="8"/>
-      <c r="M273" s="8"/>
-      <c r="N273" s="8"/>
-      <c r="O273" s="8"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L273" s="5"/>
+      <c r="M273" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="7"/>
@@ -10742,15 +10744,15 @@
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
       <c r="J274" s="7"/>
-      <c r="K274" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L274" s="9"/>
-      <c r="M274" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N274" s="10"/>
-      <c r="O274" s="10"/>
+      <c r="K274" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L274" s="5"/>
+      <c r="M274" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="7"/>
@@ -10763,15 +10765,13 @@
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
-      <c r="K275" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L275" s="9"/>
-      <c r="M275" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N275" s="10"/>
-      <c r="O275" s="10"/>
+      <c r="K275" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L275" s="8"/>
+      <c r="M275" s="8"/>
+      <c r="N275" s="8"/>
+      <c r="O275" s="8"/>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="7"/>
@@ -10785,11 +10785,11 @@
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
       <c r="K276" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L276" s="9"/>
       <c r="M276" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N276" s="10"/>
       <c r="O276" s="10"/>
@@ -10806,11 +10806,11 @@
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
       <c r="K277" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L277" s="9"/>
       <c r="M277" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N277" s="10"/>
       <c r="O277" s="10"/>
@@ -10827,11 +10827,11 @@
       <c r="I278" s="7"/>
       <c r="J278" s="7"/>
       <c r="K278" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L278" s="9"/>
       <c r="M278" s="10" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="N278" s="10"/>
       <c r="O278" s="10"/>
@@ -10848,11 +10848,11 @@
       <c r="I279" s="7"/>
       <c r="J279" s="7"/>
       <c r="K279" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L279" s="9"/>
       <c r="M279" s="10" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="N279" s="10"/>
       <c r="O279" s="10"/>
@@ -10869,11 +10869,11 @@
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
       <c r="K280" s="9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L280" s="9"/>
       <c r="M280" s="10" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N280" s="10"/>
       <c r="O280" s="10"/>
@@ -10890,11 +10890,11 @@
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
       <c r="K281" s="9" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="L281" s="9"/>
       <c r="M281" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N281" s="10"/>
       <c r="O281" s="10"/>
@@ -10910,18 +10910,60 @@
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
       <c r="J282" s="7"/>
-      <c r="K282" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L282" s="10"/>
+      <c r="K282" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L282" s="9"/>
       <c r="M282" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N282" s="10"/>
       <c r="O282" s="10"/>
     </row>
+    <row r="283" spans="1:15">
+      <c r="A283" s="7"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" s="7"/>
+      <c r="H283" s="7"/>
+      <c r="I283" s="7"/>
+      <c r="J283" s="7"/>
+      <c r="K283" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L283" s="9"/>
+      <c r="M283" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N283" s="10"/>
+      <c r="O283" s="10"/>
+    </row>
+    <row r="284" spans="1:15">
+      <c r="A284" s="7"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" s="7"/>
+      <c r="H284" s="7"/>
+      <c r="I284" s="7"/>
+      <c r="J284" s="7"/>
+      <c r="K284" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L284" s="10"/>
+      <c r="M284" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N284" s="10"/>
+      <c r="O284" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="490">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -11268,11 +11310,11 @@
     <mergeCell ref="M217:O217"/>
     <mergeCell ref="F218:G218"/>
     <mergeCell ref="H218:J218"/>
-    <mergeCell ref="K218:O218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="M218:O218"/>
     <mergeCell ref="F219:G219"/>
     <mergeCell ref="H219:J219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="M219:O219"/>
+    <mergeCell ref="K219:O219"/>
     <mergeCell ref="F220:G220"/>
     <mergeCell ref="H220:J220"/>
     <mergeCell ref="K220:L220"/>
@@ -11293,6 +11335,8 @@
     <mergeCell ref="H224:J224"/>
     <mergeCell ref="K224:L224"/>
     <mergeCell ref="M224:O224"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="H225:J225"/>
     <mergeCell ref="K225:L225"/>
     <mergeCell ref="M225:O225"/>
     <mergeCell ref="K226:L226"/>
@@ -11305,9 +11349,9 @@
     <mergeCell ref="M229:O229"/>
     <mergeCell ref="K230:L230"/>
     <mergeCell ref="M230:O230"/>
-    <mergeCell ref="K231:O231"/>
-    <mergeCell ref="K232:L232"/>
-    <mergeCell ref="M232:O232"/>
+    <mergeCell ref="K231:L231"/>
+    <mergeCell ref="M231:O231"/>
+    <mergeCell ref="K232:O232"/>
     <mergeCell ref="K233:L233"/>
     <mergeCell ref="M233:O233"/>
     <mergeCell ref="K234:L234"/>
@@ -11324,30 +11368,28 @@
     <mergeCell ref="M239:O239"/>
     <mergeCell ref="K240:L240"/>
     <mergeCell ref="M240:O240"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="H257:J257"/>
-    <mergeCell ref="K257:O257"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="M241:O241"/>
     <mergeCell ref="A258:D258"/>
     <mergeCell ref="F258:G258"/>
     <mergeCell ref="H258:J258"/>
-    <mergeCell ref="K258:L258"/>
-    <mergeCell ref="M258:O258"/>
+    <mergeCell ref="K258:O258"/>
+    <mergeCell ref="A259:D259"/>
     <mergeCell ref="F259:G259"/>
     <mergeCell ref="H259:J259"/>
     <mergeCell ref="K259:L259"/>
     <mergeCell ref="M259:O259"/>
     <mergeCell ref="F260:G260"/>
     <mergeCell ref="H260:J260"/>
-    <mergeCell ref="K260:O260"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="M260:O260"/>
     <mergeCell ref="F261:G261"/>
     <mergeCell ref="H261:J261"/>
     <mergeCell ref="K261:L261"/>
     <mergeCell ref="M261:O261"/>
     <mergeCell ref="F262:G262"/>
     <mergeCell ref="H262:J262"/>
-    <mergeCell ref="K262:L262"/>
-    <mergeCell ref="M262:O262"/>
+    <mergeCell ref="K262:O262"/>
     <mergeCell ref="F263:G263"/>
     <mergeCell ref="H263:J263"/>
     <mergeCell ref="K263:L263"/>
@@ -11360,8 +11402,12 @@
     <mergeCell ref="H265:J265"/>
     <mergeCell ref="K265:L265"/>
     <mergeCell ref="M265:O265"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:J266"/>
     <mergeCell ref="K266:L266"/>
     <mergeCell ref="M266:O266"/>
+    <mergeCell ref="F267:G267"/>
+    <mergeCell ref="H267:J267"/>
     <mergeCell ref="K267:L267"/>
     <mergeCell ref="M267:O267"/>
     <mergeCell ref="K268:L268"/>
@@ -11374,11 +11420,11 @@
     <mergeCell ref="M271:O271"/>
     <mergeCell ref="K272:L272"/>
     <mergeCell ref="M272:O272"/>
-    <mergeCell ref="K273:O273"/>
+    <mergeCell ref="K273:L273"/>
+    <mergeCell ref="M273:O273"/>
     <mergeCell ref="K274:L274"/>
     <mergeCell ref="M274:O274"/>
-    <mergeCell ref="K275:L275"/>
-    <mergeCell ref="M275:O275"/>
+    <mergeCell ref="K275:O275"/>
     <mergeCell ref="K276:L276"/>
     <mergeCell ref="M276:O276"/>
     <mergeCell ref="K277:L277"/>
@@ -11393,6 +11439,10 @@
     <mergeCell ref="M281:O281"/>
     <mergeCell ref="K282:L282"/>
     <mergeCell ref="M282:O282"/>
+    <mergeCell ref="K283:L283"/>
+    <mergeCell ref="M283:O283"/>
+    <mergeCell ref="K284:L284"/>
+    <mergeCell ref="M284:O284"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A32:O33"/>
     <mergeCell ref="A52:O53"/>
@@ -11403,7 +11453,7 @@
     <mergeCell ref="A148:O149"/>
     <mergeCell ref="A168:O169"/>
     <mergeCell ref="A213:O214"/>
-    <mergeCell ref="A255:O256"/>
+    <mergeCell ref="A256:O257"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -11416,8 +11466,8 @@
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:J35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21435" windowHeight="9525" activeTab="3"/>
+    <workbookView windowWidth="27120" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -528,10 +528,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -571,40 +571,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,10 +594,54 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,11 +653,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,20 +695,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,7 +751,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +823,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,127 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,17 +915,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,16 +943,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,7 +1035,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,79 +1044,79 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,10 +1125,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,28 +1137,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1579,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4038,8 +4038,8 @@
   <sheetPr/>
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6671,8 +6671,8 @@
   <sheetPr/>
   <dimension ref="A1:R284"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267:J267"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11466,8 +11466,8 @@
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:G47"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>获取销售点列表</t>
   </si>
@@ -229,114 +229,114 @@
     <t>1代表请求成功，2代表失败</t>
   </si>
   <si>
+    <t>result(json对象)</t>
+  </si>
+  <si>
+    <t>获取库存盘点记录</t>
+  </si>
+  <si>
+    <t>操作类型(recordType)为"1"代表添加，"2"代表减少</t>
+  </si>
+  <si>
+    <t>/s/listRepertoryRecord.action</t>
+  </si>
+  <si>
+    <t>开始时间 和 结束时间 必须同时填或同时不填</t>
+  </si>
+  <si>
+    <t>销售点Id(选填)</t>
+  </si>
+  <si>
+    <t>销售点Id(branchId)为空获取所有销售点盘点记录</t>
+  </si>
+  <si>
+    <t>recordId</t>
+  </si>
+  <si>
+    <t>盘点Id</t>
+  </si>
+  <si>
+    <t>recordCode</t>
+  </si>
+  <si>
+    <t>盘点单号</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
+    <t>开始时间(选填)</t>
+  </si>
+  <si>
+    <t>finishDate</t>
+  </si>
+  <si>
+    <t>结束时间(选填)</t>
+  </si>
+  <si>
+    <t>operatorId</t>
+  </si>
+  <si>
+    <t>操作员的用户Id</t>
+  </si>
+  <si>
+    <t>operatorName</t>
+  </si>
+  <si>
+    <t>操作员的姓名</t>
+  </si>
+  <si>
+    <t>recordRemark</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>recordType</t>
+  </si>
+  <si>
+    <t>操作的类型</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>创建时间(时间戳)</t>
+  </si>
+  <si>
+    <t>recordList(json数组)</t>
+  </si>
+  <si>
+    <t>规格名称</t>
+  </si>
+  <si>
+    <t>调整的数量</t>
+  </si>
+  <si>
+    <t>调整类型</t>
+  </si>
+  <si>
+    <t>recordReason</t>
+  </si>
+  <si>
+    <t>调整原因</t>
+  </si>
+  <si>
+    <t>currentCount</t>
+  </si>
+  <si>
+    <t>总部当前库存</t>
+  </si>
+  <si>
+    <t>盘点库存</t>
+  </si>
+  <si>
+    <t>/s/updateRepertory.action</t>
+  </si>
+  <si>
     <t>result</t>
   </si>
   <si>
-    <t>总部销售点Id</t>
-  </si>
-  <si>
-    <t>获取库存盘点记录</t>
-  </si>
-  <si>
-    <t>操作类型(recordType)为"1"代表添加，"2"代表减少</t>
-  </si>
-  <si>
-    <t>/s/listRepertoryRecord.action</t>
-  </si>
-  <si>
-    <t>开始时间 和 结束时间 必须同时填或同时不填</t>
-  </si>
-  <si>
-    <t>销售点Id(选填)</t>
-  </si>
-  <si>
-    <t>销售点Id(branchId)为空获取所有销售点盘点记录</t>
-  </si>
-  <si>
-    <t>recordId</t>
-  </si>
-  <si>
-    <t>盘点Id</t>
-  </si>
-  <si>
-    <t>recordCode</t>
-  </si>
-  <si>
-    <t>盘点单号</t>
-  </si>
-  <si>
-    <t>createDate</t>
-  </si>
-  <si>
-    <t>开始时间(选填)</t>
-  </si>
-  <si>
-    <t>finishDate</t>
-  </si>
-  <si>
-    <t>结束时间(选填)</t>
-  </si>
-  <si>
-    <t>operatorId</t>
-  </si>
-  <si>
-    <t>操作员的用户Id</t>
-  </si>
-  <si>
-    <t>operatorName</t>
-  </si>
-  <si>
-    <t>操作员的姓名</t>
-  </si>
-  <si>
-    <t>recordRemark</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>recordType</t>
-  </si>
-  <si>
-    <t>操作的类型</t>
-  </si>
-  <si>
-    <t>操作类型</t>
-  </si>
-  <si>
-    <t>创建时间(时间戳)</t>
-  </si>
-  <si>
-    <t>recordList(json数组)</t>
-  </si>
-  <si>
-    <t>规格名称</t>
-  </si>
-  <si>
-    <t>调整的数量</t>
-  </si>
-  <si>
-    <t>调整类型</t>
-  </si>
-  <si>
-    <t>recordReason</t>
-  </si>
-  <si>
-    <t>调整原因</t>
-  </si>
-  <si>
-    <t>currentCount</t>
-  </si>
-  <si>
-    <t>总部当前库存</t>
-  </si>
-  <si>
-    <t>盘点库存</t>
-  </si>
-  <si>
-    <t>/s/updateRepertory.action</t>
-  </si>
-  <si>
     <t>goodsInfo(json数组)</t>
   </si>
   <si>
@@ -512,9 +512,6 @@
   </si>
   <si>
     <t>/s/getRepertoryIncome.action</t>
-  </si>
-  <si>
-    <t>result(json对象)</t>
   </si>
   <si>
     <t>获取总部进仓单列表</t>
@@ -528,10 +525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -570,26 +567,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,9 +590,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,22 +604,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,6 +625,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,6 +678,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,6 +748,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -769,6 +772,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -781,7 +796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,43 +826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,19 +850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,12 +898,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -915,11 +912,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,22 +955,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,91 +1029,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1137,28 +1134,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,10 +1574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R157"/>
+  <dimension ref="A1:R159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:L33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3757,14 +3754,54 @@
         <v>70</v>
       </c>
       <c r="L157" s="3"/>
-      <c r="M157" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
     </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="269">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -4018,8 +4055,15 @@
     <mergeCell ref="M156:O156"/>
     <mergeCell ref="F157:G157"/>
     <mergeCell ref="H157:J157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="M157:O157"/>
+    <mergeCell ref="K157:O157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="M158:O158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:O159"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A26:O27"/>
     <mergeCell ref="A59:O60"/>
@@ -4038,8 +4082,8 @@
   <sheetPr/>
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4051,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4068,7 +4112,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
@@ -4125,7 +4169,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4152,7 +4196,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
@@ -4224,7 +4268,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -4236,7 +4280,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
@@ -4257,11 +4301,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -4285,11 +4329,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -4304,11 +4348,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4332,11 +4376,11 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4365,11 +4409,11 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -4389,11 +4433,11 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -4413,11 +4457,11 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -4437,14 +4481,14 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="17"/>
@@ -4463,11 +4507,11 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -4487,7 +4531,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -4609,7 +4653,7 @@
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -4633,7 +4677,7 @@
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -4653,11 +4697,11 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -4677,11 +4721,11 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -4725,11 +4769,11 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -4763,7 +4807,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4780,7 +4824,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -4837,7 +4881,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4911,11 +4955,11 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -4978,11 +5022,11 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -5100,7 +5144,7 @@
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -5124,7 +5168,7 @@
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -5144,11 +5188,11 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -5168,11 +5212,11 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -5334,11 +5378,11 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -5362,11 +5406,11 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -5383,11 +5427,11 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L69" s="5"/>
       <c r="M69" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -5446,11 +5490,11 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L72" s="5"/>
       <c r="M72" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
@@ -5467,11 +5511,11 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
@@ -5488,11 +5532,11 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
@@ -5509,11 +5553,11 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
@@ -5530,11 +5574,11 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
@@ -5551,7 +5595,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
@@ -5658,7 +5702,7 @@
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -5679,7 +5723,7 @@
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -5696,11 +5740,11 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -5717,11 +5761,11 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -5759,11 +5803,11 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L87" s="9"/>
       <c r="M87" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
@@ -5970,11 +6014,11 @@
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L105" s="5"/>
       <c r="M105" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
@@ -5986,20 +6030,20 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L106" s="5"/>
       <c r="M106" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
@@ -6011,11 +6055,11 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -6062,11 +6106,11 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L109" s="5"/>
       <c r="M109" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
@@ -6083,11 +6127,11 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
@@ -6104,11 +6148,11 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L111" s="5"/>
       <c r="M111" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
@@ -6125,11 +6169,11 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
@@ -6146,11 +6190,11 @@
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L113" s="5"/>
       <c r="M113" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
@@ -6167,7 +6211,7 @@
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -6274,7 +6318,7 @@
       </c>
       <c r="L119" s="9"/>
       <c r="M119" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
@@ -6295,7 +6339,7 @@
       </c>
       <c r="L120" s="9"/>
       <c r="M120" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -6312,11 +6356,11 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L121" s="9"/>
       <c r="M121" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -6333,11 +6377,11 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L122" s="9"/>
       <c r="M122" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
@@ -6375,11 +6419,11 @@
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L124" s="9"/>
       <c r="M124" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -6671,8 +6715,8 @@
   <sheetPr/>
   <dimension ref="A1:R284"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81:L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6842,7 +6886,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
@@ -7009,7 +7053,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -7127,7 +7171,7 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -7856,7 +7900,7 @@
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
@@ -7873,11 +7917,11 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
@@ -8043,7 +8087,7 @@
       </c>
       <c r="L95" s="9"/>
       <c r="M95" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -8064,7 +8108,7 @@
       </c>
       <c r="L96" s="9"/>
       <c r="M96" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -8102,11 +8146,11 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L98" s="9"/>
       <c r="M98" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -8214,7 +8258,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q110" s="16"/>
       <c r="R110" s="16"/>
@@ -8404,7 +8448,7 @@
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -8450,11 +8494,11 @@
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -8475,11 +8519,11 @@
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -8593,7 +8637,7 @@
       </c>
       <c r="L126" s="3"/>
       <c r="M126" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
@@ -8610,11 +8654,11 @@
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
@@ -8780,7 +8824,7 @@
       </c>
       <c r="L135" s="9"/>
       <c r="M135" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
@@ -8801,7 +8845,7 @@
       </c>
       <c r="L136" s="9"/>
       <c r="M136" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
@@ -8839,11 +8883,11 @@
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L138" s="9"/>
       <c r="M138" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
@@ -9400,7 +9444,7 @@
       </c>
       <c r="L183" s="3"/>
       <c r="M183" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N183" s="6"/>
       <c r="O183" s="6"/>
@@ -9417,11 +9461,11 @@
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L184" s="5"/>
       <c r="M184" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N184" s="6"/>
       <c r="O184" s="6"/>
@@ -9587,7 +9631,7 @@
       </c>
       <c r="L192" s="9"/>
       <c r="M192" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
@@ -9608,7 +9652,7 @@
       </c>
       <c r="L193" s="9"/>
       <c r="M193" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
@@ -9646,11 +9690,11 @@
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L195" s="9"/>
       <c r="M195" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N195" s="10"/>
       <c r="O195" s="10"/>
@@ -9877,7 +9921,7 @@
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
@@ -9923,11 +9967,11 @@
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G223" s="3"/>
       <c r="H223" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
@@ -9948,11 +9992,11 @@
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G224" s="3"/>
       <c r="H224" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
@@ -10066,7 +10110,7 @@
       </c>
       <c r="L229" s="3"/>
       <c r="M229" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N229" s="6"/>
       <c r="O229" s="6"/>
@@ -10083,11 +10127,11 @@
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
       <c r="K230" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L230" s="5"/>
       <c r="M230" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N230" s="6"/>
       <c r="O230" s="6"/>
@@ -10232,7 +10276,7 @@
       </c>
       <c r="L237" s="9"/>
       <c r="M237" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N237" s="10"/>
       <c r="O237" s="10"/>
@@ -10253,7 +10297,7 @@
       </c>
       <c r="L238" s="9"/>
       <c r="M238" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N238" s="10"/>
       <c r="O238" s="10"/>
@@ -10291,11 +10335,11 @@
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
       <c r="K240" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L240" s="9"/>
       <c r="M240" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N240" s="10"/>
       <c r="O240" s="10"/>
@@ -10543,11 +10587,11 @@
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
       <c r="F265" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G265" s="3"/>
       <c r="H265" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
@@ -10568,11 +10612,11 @@
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
       <c r="F266" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
@@ -10707,7 +10751,7 @@
       </c>
       <c r="L272" s="3"/>
       <c r="M272" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N272" s="6"/>
       <c r="O272" s="6"/>
@@ -10724,11 +10768,11 @@
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
       <c r="K273" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L273" s="5"/>
       <c r="M273" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N273" s="6"/>
       <c r="O273" s="6"/>
@@ -10873,7 +10917,7 @@
       </c>
       <c r="L280" s="9"/>
       <c r="M280" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N280" s="10"/>
       <c r="O280" s="10"/>
@@ -10894,7 +10938,7 @@
       </c>
       <c r="L281" s="9"/>
       <c r="M281" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N281" s="10"/>
       <c r="O281" s="10"/>
@@ -10932,11 +10976,11 @@
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
       <c r="K283" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L283" s="9"/>
       <c r="M283" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N283" s="10"/>
       <c r="O283" s="10"/>
@@ -11608,7 +11652,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
@@ -11649,7 +11693,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -11752,7 +11796,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -11964,7 +12008,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="6" t="s">
@@ -11980,16 +12024,16 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="6" t="s">
@@ -12005,11 +12049,11 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -12056,11 +12100,11 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
@@ -12077,11 +12121,11 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
@@ -12098,11 +12142,11 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -12119,11 +12163,11 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -12247,7 +12291,7 @@
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -12268,7 +12312,7 @@
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -12306,11 +12350,11 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -12469,7 +12513,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -12483,7 +12527,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="6" t="s">
@@ -12492,7 +12536,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="6" t="s">
@@ -12513,7 +12557,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="6" t="s">
@@ -12576,11 +12620,11 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
@@ -12597,11 +12641,11 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L69" s="5"/>
       <c r="M69" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -12618,11 +12662,11 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L70" s="5"/>
       <c r="M70" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
@@ -12639,11 +12683,11 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L71" s="5"/>
       <c r="M71" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
@@ -12767,7 +12811,7 @@
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -12788,7 +12832,7 @@
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -12826,11 +12870,11 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -12858,7 +12902,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -12921,7 +12965,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -13037,7 +13081,7 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="6" t="s">
@@ -13053,16 +13097,16 @@
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="6" t="s">
@@ -13078,11 +13122,11 @@
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -13129,11 +13173,11 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
@@ -13150,11 +13194,11 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L103" s="5"/>
       <c r="M103" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
@@ -13171,11 +13215,11 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
@@ -13192,11 +13236,11 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L105" s="5"/>
       <c r="M105" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
@@ -13320,7 +13364,7 @@
       </c>
       <c r="L111" s="9"/>
       <c r="M111" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
@@ -13341,7 +13385,7 @@
       </c>
       <c r="L112" s="9"/>
       <c r="M112" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -13379,11 +13423,11 @@
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L114" s="9"/>
       <c r="M114" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="27120" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -567,15 +567,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -583,10 +576,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,6 +587,14 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,10 +606,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,16 +628,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -644,8 +644,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,23 +677,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,19 +748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +796,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,49 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,7 +844,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,19 +886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,6 +909,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,32 +953,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -965,6 +967,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,17 +1009,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,19 +1029,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,58 +1050,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,10 +1110,10 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,28 +1134,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1576,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:R159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11510,8 +11510,8 @@
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350" activeTab="3"/>
+    <workbookView windowWidth="27120" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -525,10 +525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -568,23 +568,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,60 +577,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -669,6 +600,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -676,8 +630,61 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,13 +692,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +784,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +832,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,91 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,11 +912,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +962,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,59 +1003,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,91 +1029,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,28 +1134,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1576,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:R159"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6715,8 +6715,8 @@
   <sheetPr/>
   <dimension ref="A1:R284"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81:L81"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="J193" sqref="J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11510,7 +11510,7 @@
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27120" windowHeight="10350"/>
+    <workbookView windowWidth="21930" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="查看库存" sheetId="4" r:id="rId1"/>
@@ -525,10 +525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -567,24 +567,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,26 +620,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,38 +637,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,6 +660,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -690,8 +675,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +748,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +784,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,79 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,13 +844,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,45 +909,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -962,26 +923,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,8 +945,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,91 +1029,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,28 +1134,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1576,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:R159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -525,10 +525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -567,11 +567,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,8 +597,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,6 +608,45 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,58 +661,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,12 +748,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -766,13 +760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,24 +784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,13 +796,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,19 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,19 +886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,6 +909,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -928,39 +976,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -970,21 +985,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,73 +1029,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1104,7 +1104,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,28 +1134,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1576,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:R159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M101" sqref="M101:O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/库存接口.xlsx
+++ b/需求分析/接口文档/客户/库存接口.xlsx
@@ -525,10 +525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -567,22 +567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -597,25 +581,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,6 +605,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -646,7 +622,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,6 +649,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,7 +748,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +778,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,18 +838,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -820,7 +850,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,25 +880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,43 +892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,11 +912,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +938,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,37 +976,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,73 +1029,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1104,16 +1104,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,10 +1122,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1134,28 +1134,28 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1576,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:R159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M101" sqref="M101:O101"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11510,8 +11510,8 @@
   <sheetPr/>
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
